--- a/tables/kom.xlsx
+++ b/tables/kom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="99">
   <si>
     <t>203-022-003 60</t>
   </si>
@@ -25,6 +25,9 @@
     <t xml:space="preserve">ПИ К </t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Копия</t>
   </si>
   <si>
@@ -46,6 +49,21 @@
     <t xml:space="preserve">САУ К САУ </t>
   </si>
   <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>1 - ИСТ</t>
+  </si>
+  <si>
     <t>госуслуги</t>
   </si>
   <si>
@@ -61,13 +79,25 @@
     <t xml:space="preserve">ПИ ЗО К </t>
   </si>
   <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>122326</t>
   </si>
   <si>
     <t>Таганов Гапур</t>
   </si>
   <si>
-    <t xml:space="preserve">ПИ ИК К </t>
+    <t xml:space="preserve">ПИ ИК </t>
   </si>
   <si>
     <t>142-053-977 39</t>
@@ -97,7 +127,7 @@
     <t>Ашыров Эзиз</t>
   </si>
   <si>
-    <t xml:space="preserve">КБ ИК К </t>
+    <t xml:space="preserve">КБ ИК </t>
   </si>
   <si>
     <t>161-943-011 52</t>
@@ -115,13 +145,16 @@
     <t xml:space="preserve">КБ К </t>
   </si>
   <si>
+    <t>58</t>
+  </si>
+  <si>
     <t>122478</t>
   </si>
   <si>
     <t>Ибадуллаев Нурягды</t>
   </si>
   <si>
-    <t xml:space="preserve">ФИИТ ИК К </t>
+    <t xml:space="preserve">ФИИТ ИК </t>
   </si>
   <si>
     <t>122502</t>
@@ -134,6 +167,150 @@
   </si>
   <si>
     <t>Сальников Роман Станиславович</t>
+  </si>
+  <si>
+    <t>159-646-776 31</t>
+  </si>
+  <si>
+    <t>Винокурова Полина Александровна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИИТ ФИИТ К </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПИ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОАИС </t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>188-492-754 39</t>
+  </si>
+  <si>
+    <t>ПИ</t>
+  </si>
+  <si>
+    <t>МОАИС</t>
+  </si>
+  <si>
+    <t>ИВТ</t>
+  </si>
+  <si>
+    <t>КБ</t>
+  </si>
+  <si>
+    <t>ФИИТ К ФИИТ</t>
+  </si>
+  <si>
+    <t>159-751-168 04</t>
+  </si>
+  <si>
+    <t>1 - ИСТ 5 - МКН</t>
+  </si>
+  <si>
+    <t>169-169-689 33</t>
+  </si>
+  <si>
+    <t>МОАИС К</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>177-504-331 75</t>
+  </si>
+  <si>
+    <t>МОАИС К МОАИС</t>
+  </si>
+  <si>
+    <t>3 - МКН 5 - ИСТ</t>
+  </si>
+  <si>
+    <t>164-321-908 51</t>
+  </si>
+  <si>
+    <t>Асцатурян Арамаис Ашотович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИВТ ИВТ К </t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>165-103-085 30</t>
+  </si>
+  <si>
+    <t>ИВТ К</t>
+  </si>
+  <si>
+    <t>2 - ИТиСС 4 - ИСТ</t>
+  </si>
+  <si>
+    <t>159-660-841 09</t>
+  </si>
+  <si>
+    <t>Кренько Георгий Владимирович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИВТ </t>
+  </si>
+  <si>
+    <t>1 - Геол 2 - БИ Биология 5 - БСТ</t>
+  </si>
+  <si>
+    <t>163-058-522 55</t>
+  </si>
+  <si>
+    <t>ПИ К ПИ ЗО</t>
+  </si>
+  <si>
+    <t>159-910-631 95</t>
+  </si>
+  <si>
+    <t>ПИ К ПИ</t>
+  </si>
+  <si>
+    <t>161-362-721 45</t>
+  </si>
+  <si>
+    <t>Черешкова Елизавета Андреевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПИ ЗО ПИ ЗО К </t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>162-637-122 58</t>
+  </si>
+  <si>
+    <t>ПИ ЗО К ПИ ЗО</t>
+  </si>
+  <si>
+    <t>158-628-694 21</t>
+  </si>
+  <si>
+    <t>2 - ПРИ экон мех  ЗО</t>
   </si>
 </sst>
 </file>
@@ -465,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,219 +658,623 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
       <c r="P1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
       </c>
       <c r="P2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>15</v>
       </c>
       <c r="S2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="T2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="P4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
       </c>
       <c r="P6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="P7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="P8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="P10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
       <c r="P11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s">
+        <v>16</v>
+      </c>
+      <c r="T14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>66</v>
+      </c>
+      <c r="S15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" t="s">
         <v>14</v>
       </c>
-      <c r="P12" t="s">
+      <c r="L16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" t="s">
         <v>3</v>
       </c>
-      <c r="S12" t="s">
-        <v>10</v>
+      <c r="P17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>74</v>
+      </c>
+      <c r="S17" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>15</v>
+      </c>
+      <c r="S18" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>82</v>
+      </c>
+      <c r="S19" t="s">
+        <v>16</v>
+      </c>
+      <c r="T19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>86</v>
+      </c>
+      <c r="S20" t="s">
+        <v>16</v>
+      </c>
+      <c r="T20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s">
+        <v>16</v>
+      </c>
+      <c r="T23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J24" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s">
+        <v>16</v>
+      </c>
+      <c r="T24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="J25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>98</v>
+      </c>
+      <c r="S25" t="s">
+        <v>16</v>
+      </c>
+      <c r="T25" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/tables/kom.xlsx
+++ b/tables/kom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="295">
   <si>
     <t>203-022-003 60</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Федин Амаль Александрович</t>
   </si>
   <si>
-    <t xml:space="preserve">ПИ К </t>
+    <t>ПИ К</t>
   </si>
   <si>
     <t>0</t>
@@ -40,13 +40,13 @@
     <t>Каримов Руслан Ринатович</t>
   </si>
   <si>
-    <t xml:space="preserve">ИВТ К ИВТ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПИ К ПИ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">САУ К САУ </t>
+    <t>ИВТ К ИВТ</t>
+  </si>
+  <si>
+    <t>ПИ</t>
+  </si>
+  <si>
+    <t>САУ</t>
   </si>
   <si>
     <t>168</t>
@@ -76,7 +76,7 @@
     <t>Никитин Михаил Васильевич</t>
   </si>
   <si>
-    <t xml:space="preserve">ПИ ЗО К </t>
+    <t>ПИ ЗО К</t>
   </si>
   <si>
     <t>222</t>
@@ -97,7 +97,7 @@
     <t>Таганов Гапур</t>
   </si>
   <si>
-    <t xml:space="preserve">ПИ ИК </t>
+    <t xml:space="preserve">ПИ И К </t>
   </si>
   <si>
     <t>142-053-977 39</t>
@@ -127,7 +127,7 @@
     <t>Ашыров Эзиз</t>
   </si>
   <si>
-    <t xml:space="preserve">КБ ИК </t>
+    <t xml:space="preserve">КБ И К </t>
   </si>
   <si>
     <t>161-943-011 52</t>
@@ -136,13 +136,7 @@
     <t>Лапенко Богдан Дмитриевич</t>
   </si>
   <si>
-    <t xml:space="preserve">ИВТ К </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФИИТ К </t>
-  </si>
-  <si>
-    <t xml:space="preserve">КБ К </t>
+    <t>ФИИТ К</t>
   </si>
   <si>
     <t>58</t>
@@ -154,7 +148,7 @@
     <t>Ибадуллаев Нурягды</t>
   </si>
   <si>
-    <t xml:space="preserve">ФИИТ ИК </t>
+    <t xml:space="preserve">ФИИТ И К </t>
   </si>
   <si>
     <t>122502</t>
@@ -175,13 +169,10 @@
     <t>Винокурова Полина Александровна</t>
   </si>
   <si>
-    <t xml:space="preserve">ФИИТ ФИИТ К </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПИ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">МОАИС </t>
+    <t>ФИИТ К ФИИТ</t>
+  </si>
+  <si>
+    <t>МОАИС</t>
   </si>
   <si>
     <t>219</t>
@@ -196,24 +187,27 @@
     <t>188-492-754 39</t>
   </si>
   <si>
-    <t>ПИ</t>
-  </si>
-  <si>
-    <t>МОАИС</t>
-  </si>
-  <si>
     <t>ИВТ</t>
   </si>
   <si>
     <t>КБ</t>
   </si>
   <si>
-    <t>ФИИТ К ФИИТ</t>
+    <t>224</t>
+  </si>
+  <si>
+    <t>78</t>
   </si>
   <si>
     <t>159-751-168 04</t>
   </si>
   <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
     <t>1 - ИСТ 5 - МКН</t>
   </si>
   <si>
@@ -238,6 +232,12 @@
     <t>МОАИС К МОАИС</t>
   </si>
   <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
     <t>3 - МКН 5 - ИСТ</t>
   </si>
   <si>
@@ -247,9 +247,6 @@
     <t>Асцатурян Арамаис Ашотович</t>
   </si>
   <si>
-    <t xml:space="preserve">ИВТ ИВТ К </t>
-  </si>
-  <si>
     <t>119</t>
   </si>
   <si>
@@ -262,6 +259,12 @@
     <t>ИВТ К</t>
   </si>
   <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
     <t>2 - ИТиСС 4 - ИСТ</t>
   </si>
   <si>
@@ -271,9 +274,6 @@
     <t>Кренько Георгий Владимирович</t>
   </si>
   <si>
-    <t xml:space="preserve">ИВТ </t>
-  </si>
-  <si>
     <t>1 - Геол 2 - БИ Биология 5 - БСТ</t>
   </si>
   <si>
@@ -289,13 +289,22 @@
     <t>ПИ К ПИ</t>
   </si>
   <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
     <t>161-362-721 45</t>
   </si>
   <si>
     <t>Черешкова Елизавета Андреевна</t>
   </si>
   <si>
-    <t xml:space="preserve">ПИ ЗО ПИ ЗО К </t>
+    <t>ПИ ЗО К ПИ ЗО</t>
   </si>
   <si>
     <t>128</t>
@@ -304,13 +313,592 @@
     <t>162-637-122 58</t>
   </si>
   <si>
-    <t>ПИ ЗО К ПИ ЗО</t>
+    <t>206</t>
   </si>
   <si>
     <t>158-628-694 21</t>
   </si>
   <si>
     <t>2 - ПРИ экон мех  ЗО</t>
+  </si>
+  <si>
+    <t>160-808-626 64</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>163-616-486 76</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>159-235-409 79</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>162-271-034 31</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>1 - ПМИ 2 - БИ 3 - ПРИ мех 4 - МКН</t>
+  </si>
+  <si>
+    <t>195-769-350 41</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>3 - ПРИ мех</t>
+  </si>
+  <si>
+    <t>161-658-179 82</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>5 - БИ</t>
+  </si>
+  <si>
+    <t>161-708-381 63</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>1 - ПМИ 2 - ПРИ мех 4 - ИСТ 6 - ПРИ соц</t>
+  </si>
+  <si>
+    <t>162-581-598 85</t>
+  </si>
+  <si>
+    <t>162-924-732 79</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>159-693-652 33</t>
+  </si>
+  <si>
+    <t>ФИИТ К ПИ</t>
+  </si>
+  <si>
+    <t>ФИИТ</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>5 - ПРИ мех</t>
+  </si>
+  <si>
+    <t>160-092-673 44</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>176-466-135 98</t>
+  </si>
+  <si>
+    <t>159-970-651 28</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>159-099-740 20</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>160-477-968 90</t>
+  </si>
+  <si>
+    <t>ФИИТ К КБ</t>
+  </si>
+  <si>
+    <t>161-661-018 43</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>182-796-635 25</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4 - ПМИ 5 - МКН</t>
+  </si>
+  <si>
+    <t>161-759-171 84</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>1 - БИ</t>
+  </si>
+  <si>
+    <t>163-034-195 34</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>191-420-094 43</t>
+  </si>
+  <si>
+    <t>ФИИТ К ИВТ</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>175-965-766 41</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>162-406-789 64</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>3 - ЭиН Радиофизика 5 - БСТ</t>
+  </si>
+  <si>
+    <t>159-153-377 84</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>168-455-809 13</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>162-581-644 74</t>
+  </si>
+  <si>
+    <t>000125637</t>
+  </si>
+  <si>
+    <t>МОАИС МОАИС ОК</t>
+  </si>
+  <si>
+    <t>ИВТ ИВТ ОК</t>
+  </si>
+  <si>
+    <t>ПИ ПИ ОК</t>
+  </si>
+  <si>
+    <t>КБ К КБ КБ ОК</t>
+  </si>
+  <si>
+    <t>ФИИТ ФИИТ ОК</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>161-437-374 57</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>191-149-167 71</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>3 - ПРИ мех 4 - БИ</t>
+  </si>
+  <si>
+    <t>160-963-258 76</t>
+  </si>
+  <si>
+    <t>166-552-017 70</t>
+  </si>
+  <si>
+    <t>2 - БИ</t>
+  </si>
+  <si>
+    <t>161-697-702 95</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>5 - ПМИ</t>
+  </si>
+  <si>
+    <t>176-825-214 96</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>175-724-563 97</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>2 - ПРИ мех 3 - ПМИ 4 - МКН</t>
+  </si>
+  <si>
+    <t>161-879-779 25</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>177-679-164 38</t>
+  </si>
+  <si>
+    <t>ИВТ К ФИИТ</t>
+  </si>
+  <si>
+    <t>165-941-304 82</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>1 - БИ 2 - ПМИ Инноватика</t>
+  </si>
+  <si>
+    <t>162-998-026 10</t>
+  </si>
+  <si>
+    <t>ИВТ К ПИ</t>
+  </si>
+  <si>
+    <t>3 - ИСТ 4 - ПРИ мех 5 - МКН</t>
+  </si>
+  <si>
+    <t>142-445-920 49</t>
+  </si>
+  <si>
+    <t>1 - БИ 2 - ПМИ 3 - ИСТ 4 - ПРИ соц 5 - ПРИ мех</t>
+  </si>
+  <si>
+    <t>191-239-620 72</t>
+  </si>
+  <si>
+    <t>1 - ПРИ мех 2 - ПРИ соц 3 - ПМИ 5 - МКН 6 - ПРИ экон мех  ЗО 7 - ПРИ соц  ЗО</t>
+  </si>
+  <si>
+    <t>160-900-187 36</t>
+  </si>
+  <si>
+    <t>166-960-245 00</t>
+  </si>
+  <si>
+    <t>2 - ИСТ 3 - БИ 4 - ПРИ мех</t>
+  </si>
+  <si>
+    <t>163-373-676 80</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>1 - БИ 2 - ПРИ мех 3 - ПМИ 4 - ПРИ соц 5 - ИСТ</t>
+  </si>
+  <si>
+    <t>164-865-817 14</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>165-218-799 88</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>162-335-601 42</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>191-511-027 37</t>
+  </si>
+  <si>
+    <t>ИВТ К ИВТ Ц</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>2 - ПРИ мех</t>
+  </si>
+  <si>
+    <t>158-650-669 03</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>1 - ИТиСС</t>
+  </si>
+  <si>
+    <t>165-447-587 00</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>3 - ИСТ 4 - ПРИ мех 5 - ПРИ соц</t>
+  </si>
+  <si>
+    <t>166-983-790 42</t>
+  </si>
+  <si>
+    <t>159-832-647 14</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>160-391-505 43</t>
+  </si>
+  <si>
+    <t>2 - ИСТ 3 - ЭиН 4 - КТЭС</t>
+  </si>
+  <si>
+    <t>192-606-088 78</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>160-727-813 65</t>
+  </si>
+  <si>
+    <t>160-391-471 50</t>
+  </si>
+  <si>
+    <t>2 - ИТиСС 3 - БСТ 4 - Геол</t>
+  </si>
+  <si>
+    <t>160-216-325 15</t>
+  </si>
+  <si>
+    <t>1 - МКН 2 - ПМИ 3 - ИСТ 4 - ПРИ мех</t>
+  </si>
+  <si>
+    <t>178-138-895 19</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>1 - МК 2 - Геол 3 - БИ</t>
+  </si>
+  <si>
+    <t>160-300-641 01</t>
+  </si>
+  <si>
+    <t>1 - ИСТ 4 - ПМИ</t>
+  </si>
+  <si>
+    <t>158-471-870 04</t>
+  </si>
+  <si>
+    <t>163-341-280 41</t>
+  </si>
+  <si>
+    <t>162-294-853 80</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>2 - ИСТ 3 - ПРИ мех 4 - ПМИ</t>
+  </si>
+  <si>
+    <t>181-708-112 60</t>
+  </si>
+  <si>
+    <t>КБ К КБ</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>3 - ПРИ мех 4 - ПМИ</t>
+  </si>
+  <si>
+    <t>164-923-524 83</t>
+  </si>
+  <si>
+    <t>1 - ПМИ 3 - МКН 4 - ПРИ мех</t>
+  </si>
+  <si>
+    <t>162-034-348 26</t>
+  </si>
+  <si>
+    <t>КБ К ФИИТ</t>
+  </si>
+  <si>
+    <t>161-234-557 38</t>
+  </si>
+  <si>
+    <t>КБ К</t>
+  </si>
+  <si>
+    <t>1 - БИ 3 - МКН 4 - МиММ 5 - ПРИ соц</t>
+  </si>
+  <si>
+    <t>199-419-210 15</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Прикладные математика и физика Физика</t>
+  </si>
+  <si>
+    <t>170-860-841 75</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>152-876-057 86</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>1 - МКН 3 - ЭиН 4 - МиММ Прикладные математика и физика</t>
+  </si>
+  <si>
+    <t>181-696-246 03</t>
+  </si>
+  <si>
+    <t>2 - ПРИ экон мех  ЗО 3 - ПРИ соц  ЗО</t>
+  </si>
+  <si>
+    <t>173-463-861 88</t>
+  </si>
+  <si>
+    <t>1 - ПРИ экон мех  ЗО</t>
+  </si>
+  <si>
+    <t>162-860-734 79</t>
+  </si>
+  <si>
+    <t>ПИ ЗО</t>
+  </si>
+  <si>
+    <t>Радиофизика 2 - ПРИ мех 3 - ПРИ соц 4 - ПРИ экон мех  ЗО 5 - ПРИ соц  ЗО</t>
+  </si>
+  <si>
+    <t>192-373-822 89</t>
+  </si>
+  <si>
+    <t>126-117-368 34</t>
+  </si>
+  <si>
+    <t>163-421-423 34</t>
+  </si>
+  <si>
+    <t>192-733-071 78</t>
   </si>
 </sst>
 </file>
@@ -642,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -836,23 +1424,14 @@
       <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
         <v>41</v>
       </c>
-      <c r="G9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
-        <v>43</v>
-      </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P9" t="s">
         <v>4</v>
@@ -863,13 +1442,13 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
         <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
       </c>
       <c r="P10" t="s">
         <v>4</v>
@@ -880,10 +1459,10 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
@@ -900,10 +1479,10 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -920,31 +1499,31 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" t="s">
+      <c r="J13" t="s">
         <v>53</v>
       </c>
-      <c r="E13" t="s">
+      <c r="K13" t="s">
         <v>54</v>
       </c>
-      <c r="F13" t="s">
+      <c r="L13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" t="s">
         <v>55</v>
-      </c>
-      <c r="J13" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" t="s">
-        <v>58</v>
       </c>
       <c r="P13" t="s">
         <v>4</v>
@@ -958,25 +1537,34 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" t="s">
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" t="s">
         <v>60</v>
-      </c>
-      <c r="E14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" t="s">
-        <v>3</v>
       </c>
       <c r="P14" t="s">
         <v>4</v>
@@ -990,25 +1578,34 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" t="s">
         <v>62</v>
       </c>
-      <c r="F15" t="s">
+      <c r="K15" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s">
         <v>64</v>
-      </c>
-      <c r="G15" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>66</v>
       </c>
       <c r="S15" t="s">
         <v>16</v>
@@ -1019,22 +1616,22 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" t="s">
         <v>67</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" t="s">
-        <v>69</v>
       </c>
       <c r="K16" t="s">
         <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P16" t="s">
         <v>4</v>
@@ -1048,19 +1645,28 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" t="s">
         <v>72</v>
       </c>
-      <c r="D17" t="s">
+      <c r="K17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" t="s">
         <v>73</v>
-      </c>
-      <c r="E17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" t="s">
-        <v>3</v>
       </c>
       <c r="P17" t="s">
         <v>4</v>
@@ -1083,16 +1689,16 @@
         <v>76</v>
       </c>
       <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" t="s">
         <v>77</v>
-      </c>
-      <c r="J18" t="s">
-        <v>78</v>
       </c>
       <c r="K18" t="s">
         <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P18" t="s">
         <v>4</v>
@@ -1109,25 +1715,34 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" t="s">
         <v>80</v>
       </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>81</v>
       </c>
-      <c r="J19" t="s">
-        <v>3</v>
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" t="s">
+        <v>82</v>
       </c>
       <c r="P19" t="s">
         <v>4</v>
       </c>
       <c r="Q19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S19" t="s">
         <v>16</v>
@@ -1138,16 +1753,16 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s">
         <v>3</v>
@@ -1193,7 +1808,16 @@
         <v>90</v>
       </c>
       <c r="J22" t="s">
-        <v>3</v>
+        <v>91</v>
+      </c>
+      <c r="K22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" t="s">
+        <v>92</v>
+      </c>
+      <c r="M22" t="s">
+        <v>93</v>
       </c>
       <c r="P22" t="s">
         <v>4</v>
@@ -1207,19 +1831,19 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J23" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M23" t="s">
         <v>13</v>
@@ -1236,13 +1860,22 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
         <v>96</v>
       </c>
       <c r="J24" t="s">
-        <v>3</v>
+        <v>99</v>
+      </c>
+      <c r="K24" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" t="s">
+        <v>63</v>
       </c>
       <c r="P24" t="s">
         <v>4</v>
@@ -1256,7 +1889,7 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
         <v>96</v>
@@ -1268,12 +1901,2607 @@
         <v>4</v>
       </c>
       <c r="Q25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S25" t="s">
         <v>16</v>
       </c>
       <c r="T25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" t="s">
+        <v>104</v>
+      </c>
+      <c r="L26" t="s">
+        <v>105</v>
+      </c>
+      <c r="M26" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s">
+        <v>16</v>
+      </c>
+      <c r="T26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27" t="s">
+        <v>109</v>
+      </c>
+      <c r="L27" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" t="s">
+        <v>110</v>
+      </c>
+      <c r="P27" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" t="s">
+        <v>113</v>
+      </c>
+      <c r="L28" t="s">
+        <v>105</v>
+      </c>
+      <c r="M28" t="s">
+        <v>55</v>
+      </c>
+      <c r="P28" t="s">
+        <v>30</v>
+      </c>
+      <c r="S28" t="s">
+        <v>16</v>
+      </c>
+      <c r="T28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" t="s">
+        <v>109</v>
+      </c>
+      <c r="L29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" t="s">
+        <v>106</v>
+      </c>
+      <c r="P29" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>116</v>
+      </c>
+      <c r="S29" t="s">
+        <v>16</v>
+      </c>
+      <c r="T29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" t="s">
+        <v>118</v>
+      </c>
+      <c r="K30" t="s">
+        <v>119</v>
+      </c>
+      <c r="L30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>120</v>
+      </c>
+      <c r="S30" t="s">
+        <v>16</v>
+      </c>
+      <c r="T30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" t="s">
+        <v>122</v>
+      </c>
+      <c r="K31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" t="s">
+        <v>55</v>
+      </c>
+      <c r="P31" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>123</v>
+      </c>
+      <c r="S31" t="s">
+        <v>16</v>
+      </c>
+      <c r="T31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" t="s">
+        <v>125</v>
+      </c>
+      <c r="K32" t="s">
+        <v>109</v>
+      </c>
+      <c r="L32" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" t="s">
+        <v>93</v>
+      </c>
+      <c r="P32" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>126</v>
+      </c>
+      <c r="S32" t="s">
+        <v>16</v>
+      </c>
+      <c r="T32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" t="s">
+        <v>125</v>
+      </c>
+      <c r="K33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" t="s">
+        <v>54</v>
+      </c>
+      <c r="P33" t="s">
+        <v>30</v>
+      </c>
+      <c r="S33" t="s">
+        <v>16</v>
+      </c>
+      <c r="T33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" t="s">
+        <v>129</v>
+      </c>
+      <c r="K34" t="s">
+        <v>130</v>
+      </c>
+      <c r="L34" t="s">
+        <v>54</v>
+      </c>
+      <c r="M34" t="s">
+        <v>55</v>
+      </c>
+      <c r="P34" t="s">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s">
+        <v>16</v>
+      </c>
+      <c r="T34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" t="s">
+        <v>133</v>
+      </c>
+      <c r="J35" t="s">
+        <v>134</v>
+      </c>
+      <c r="K35" t="s">
+        <v>135</v>
+      </c>
+      <c r="L35" t="s">
+        <v>92</v>
+      </c>
+      <c r="M35" t="s">
+        <v>136</v>
+      </c>
+      <c r="P35" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>137</v>
+      </c>
+      <c r="S35" t="s">
+        <v>16</v>
+      </c>
+      <c r="T35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" t="s">
+        <v>139</v>
+      </c>
+      <c r="K36" t="s">
+        <v>54</v>
+      </c>
+      <c r="L36" t="s">
+        <v>92</v>
+      </c>
+      <c r="M36" t="s">
+        <v>140</v>
+      </c>
+      <c r="P36" t="s">
+        <v>30</v>
+      </c>
+      <c r="S36" t="s">
+        <v>16</v>
+      </c>
+      <c r="T36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" t="s">
+        <v>139</v>
+      </c>
+      <c r="K37" t="s">
+        <v>63</v>
+      </c>
+      <c r="L37" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" t="s">
+        <v>106</v>
+      </c>
+      <c r="P37" t="s">
+        <v>4</v>
+      </c>
+      <c r="S37" t="s">
+        <v>16</v>
+      </c>
+      <c r="T37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" t="s">
+        <v>143</v>
+      </c>
+      <c r="K38" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" t="s">
+        <v>144</v>
+      </c>
+      <c r="M38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="s">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s">
+        <v>16</v>
+      </c>
+      <c r="T38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" t="s">
+        <v>146</v>
+      </c>
+      <c r="K39" t="s">
+        <v>60</v>
+      </c>
+      <c r="L39" t="s">
+        <v>144</v>
+      </c>
+      <c r="M39" t="s">
+        <v>13</v>
+      </c>
+      <c r="N39" t="s">
+        <v>147</v>
+      </c>
+      <c r="P39" t="s">
+        <v>4</v>
+      </c>
+      <c r="S39" t="s">
+        <v>16</v>
+      </c>
+      <c r="T39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" t="s">
+        <v>146</v>
+      </c>
+      <c r="K40" t="s">
+        <v>54</v>
+      </c>
+      <c r="L40" t="s">
+        <v>13</v>
+      </c>
+      <c r="M40" t="s">
+        <v>13</v>
+      </c>
+      <c r="P40" t="s">
+        <v>30</v>
+      </c>
+      <c r="S40" t="s">
+        <v>16</v>
+      </c>
+      <c r="T40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" t="s">
+        <v>146</v>
+      </c>
+      <c r="K41" t="s">
+        <v>54</v>
+      </c>
+      <c r="L41" t="s">
+        <v>78</v>
+      </c>
+      <c r="M41" t="s">
+        <v>151</v>
+      </c>
+      <c r="P41" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" t="s">
+        <v>16</v>
+      </c>
+      <c r="T41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" t="s">
+        <v>51</v>
+      </c>
+      <c r="J42" t="s">
+        <v>153</v>
+      </c>
+      <c r="K42" t="s">
+        <v>135</v>
+      </c>
+      <c r="L42" t="s">
+        <v>154</v>
+      </c>
+      <c r="M42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N42" t="s">
+        <v>155</v>
+      </c>
+      <c r="P42" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>156</v>
+      </c>
+      <c r="S42" t="s">
+        <v>16</v>
+      </c>
+      <c r="T42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" t="s">
+        <v>158</v>
+      </c>
+      <c r="K43" t="s">
+        <v>135</v>
+      </c>
+      <c r="L43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M43" t="s">
+        <v>63</v>
+      </c>
+      <c r="P43" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>159</v>
+      </c>
+      <c r="S43" t="s">
+        <v>16</v>
+      </c>
+      <c r="T43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" t="s">
+        <v>51</v>
+      </c>
+      <c r="J44" t="s">
+        <v>161</v>
+      </c>
+      <c r="K44" t="s">
+        <v>63</v>
+      </c>
+      <c r="L44" t="s">
+        <v>92</v>
+      </c>
+      <c r="M44" t="s">
+        <v>151</v>
+      </c>
+      <c r="P44" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" t="s">
+        <v>16</v>
+      </c>
+      <c r="T44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>163</v>
+      </c>
+      <c r="G45" t="s">
+        <v>133</v>
+      </c>
+      <c r="H45" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" t="s">
+        <v>164</v>
+      </c>
+      <c r="K45" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45" t="s">
+        <v>13</v>
+      </c>
+      <c r="M45" t="s">
+        <v>12</v>
+      </c>
+      <c r="P45" t="s">
+        <v>30</v>
+      </c>
+      <c r="S45" t="s">
+        <v>16</v>
+      </c>
+      <c r="T45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" t="s">
+        <v>166</v>
+      </c>
+      <c r="K46" t="s">
+        <v>63</v>
+      </c>
+      <c r="L46" t="s">
+        <v>82</v>
+      </c>
+      <c r="M46" t="s">
+        <v>93</v>
+      </c>
+      <c r="P46" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" t="s">
+        <v>16</v>
+      </c>
+      <c r="T46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" t="s">
+        <v>58</v>
+      </c>
+      <c r="J47" t="s">
+        <v>168</v>
+      </c>
+      <c r="K47" t="s">
+        <v>41</v>
+      </c>
+      <c r="L47" t="s">
+        <v>144</v>
+      </c>
+      <c r="M47" t="s">
+        <v>169</v>
+      </c>
+      <c r="P47" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>170</v>
+      </c>
+      <c r="S47" t="s">
+        <v>16</v>
+      </c>
+      <c r="T47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" t="s">
+        <v>172</v>
+      </c>
+      <c r="K48" t="s">
+        <v>63</v>
+      </c>
+      <c r="L48" t="s">
+        <v>173</v>
+      </c>
+      <c r="M48" t="s">
+        <v>82</v>
+      </c>
+      <c r="P48" t="s">
+        <v>30</v>
+      </c>
+      <c r="S48" t="s">
+        <v>16</v>
+      </c>
+      <c r="T48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" t="s">
+        <v>174</v>
+      </c>
+      <c r="F49" t="s">
+        <v>40</v>
+      </c>
+      <c r="J49" t="s">
+        <v>175</v>
+      </c>
+      <c r="K49" t="s">
+        <v>12</v>
+      </c>
+      <c r="M49" t="s">
+        <v>82</v>
+      </c>
+      <c r="P49" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" t="s">
+        <v>16</v>
+      </c>
+      <c r="T49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" t="s">
+        <v>57</v>
+      </c>
+      <c r="J50" t="s">
+        <v>3</v>
+      </c>
+      <c r="P50" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>137</v>
+      </c>
+      <c r="S50" t="s">
+        <v>16</v>
+      </c>
+      <c r="T50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" t="s">
+        <v>179</v>
+      </c>
+      <c r="F51" t="s">
+        <v>180</v>
+      </c>
+      <c r="G51" t="s">
+        <v>181</v>
+      </c>
+      <c r="H51" t="s">
+        <v>182</v>
+      </c>
+      <c r="J51" t="s">
+        <v>183</v>
+      </c>
+      <c r="K51" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" t="s">
+        <v>173</v>
+      </c>
+      <c r="M51" t="s">
+        <v>13</v>
+      </c>
+      <c r="P51" t="s">
+        <v>4</v>
+      </c>
+      <c r="S51" t="s">
+        <v>16</v>
+      </c>
+      <c r="T51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>133</v>
+      </c>
+      <c r="G52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" t="s">
+        <v>58</v>
+      </c>
+      <c r="J52" t="s">
+        <v>185</v>
+      </c>
+      <c r="K52" t="s">
+        <v>104</v>
+      </c>
+      <c r="L52" t="s">
+        <v>119</v>
+      </c>
+      <c r="M52" t="s">
+        <v>186</v>
+      </c>
+      <c r="N52" t="s">
+        <v>187</v>
+      </c>
+      <c r="P52" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" t="s">
+        <v>16</v>
+      </c>
+      <c r="T52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53" t="s">
+        <v>71</v>
+      </c>
+      <c r="J53" t="s">
+        <v>189</v>
+      </c>
+      <c r="K53" t="s">
+        <v>13</v>
+      </c>
+      <c r="L53" t="s">
+        <v>55</v>
+      </c>
+      <c r="M53" t="s">
+        <v>151</v>
+      </c>
+      <c r="P53" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>190</v>
+      </c>
+      <c r="S53" t="s">
+        <v>16</v>
+      </c>
+      <c r="T53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>58</v>
+      </c>
+      <c r="J54" t="s">
+        <v>99</v>
+      </c>
+      <c r="K54" t="s">
+        <v>54</v>
+      </c>
+      <c r="L54" t="s">
+        <v>144</v>
+      </c>
+      <c r="M54" t="s">
+        <v>55</v>
+      </c>
+      <c r="P54" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" t="s">
+        <v>16</v>
+      </c>
+      <c r="T54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" t="s">
+        <v>71</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" t="s">
+        <v>158</v>
+      </c>
+      <c r="K55" t="s">
+        <v>13</v>
+      </c>
+      <c r="L55" t="s">
+        <v>173</v>
+      </c>
+      <c r="M55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>193</v>
+      </c>
+      <c r="S55" t="s">
+        <v>16</v>
+      </c>
+      <c r="T55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>58</v>
+      </c>
+      <c r="J56" t="s">
+        <v>195</v>
+      </c>
+      <c r="K56" t="s">
+        <v>63</v>
+      </c>
+      <c r="L56" t="s">
+        <v>63</v>
+      </c>
+      <c r="M56" t="s">
+        <v>151</v>
+      </c>
+      <c r="P56" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>196</v>
+      </c>
+      <c r="S56" t="s">
+        <v>16</v>
+      </c>
+      <c r="T56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G57" t="s">
+        <v>9</v>
+      </c>
+      <c r="J57" t="s">
+        <v>198</v>
+      </c>
+      <c r="K57" t="s">
+        <v>135</v>
+      </c>
+      <c r="L57" t="s">
+        <v>173</v>
+      </c>
+      <c r="M57" t="s">
+        <v>69</v>
+      </c>
+      <c r="P57" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" t="s">
+        <v>16</v>
+      </c>
+      <c r="T57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" t="s">
+        <v>199</v>
+      </c>
+      <c r="D58" t="s">
+        <v>58</v>
+      </c>
+      <c r="H58" t="s">
+        <v>71</v>
+      </c>
+      <c r="J58" t="s">
+        <v>200</v>
+      </c>
+      <c r="K58" t="s">
+        <v>63</v>
+      </c>
+      <c r="L58" t="s">
+        <v>92</v>
+      </c>
+      <c r="M58" t="s">
+        <v>201</v>
+      </c>
+      <c r="P58" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>202</v>
+      </c>
+      <c r="S58" t="s">
+        <v>16</v>
+      </c>
+      <c r="T58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" t="s">
+        <v>203</v>
+      </c>
+      <c r="D59" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" t="s">
+        <v>133</v>
+      </c>
+      <c r="F59" t="s">
+        <v>57</v>
+      </c>
+      <c r="J59" t="s">
+        <v>204</v>
+      </c>
+      <c r="K59" t="s">
+        <v>135</v>
+      </c>
+      <c r="L59" t="s">
+        <v>68</v>
+      </c>
+      <c r="M59" t="s">
+        <v>73</v>
+      </c>
+      <c r="P59" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" t="s">
+        <v>16</v>
+      </c>
+      <c r="T59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60" t="s">
+        <v>205</v>
+      </c>
+      <c r="D60" t="s">
+        <v>206</v>
+      </c>
+      <c r="E60" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" t="s">
+        <v>57</v>
+      </c>
+      <c r="J60" t="s">
+        <v>143</v>
+      </c>
+      <c r="K60" t="s">
+        <v>54</v>
+      </c>
+      <c r="L60" t="s">
+        <v>55</v>
+      </c>
+      <c r="M60" t="s">
+        <v>13</v>
+      </c>
+      <c r="P60" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" t="s">
+        <v>16</v>
+      </c>
+      <c r="T60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61" t="s">
+        <v>207</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61" t="s">
+        <v>208</v>
+      </c>
+      <c r="K61" t="s">
+        <v>24</v>
+      </c>
+      <c r="L61" t="s">
+        <v>92</v>
+      </c>
+      <c r="M61" t="s">
+        <v>78</v>
+      </c>
+      <c r="P61" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>209</v>
+      </c>
+      <c r="S61" t="s">
+        <v>16</v>
+      </c>
+      <c r="T61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" t="s">
+        <v>210</v>
+      </c>
+      <c r="D62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" t="s">
+        <v>211</v>
+      </c>
+      <c r="J62" t="s">
+        <v>208</v>
+      </c>
+      <c r="K62" t="s">
+        <v>54</v>
+      </c>
+      <c r="L62" t="s">
+        <v>144</v>
+      </c>
+      <c r="M62" t="s">
+        <v>151</v>
+      </c>
+      <c r="N62" t="s">
+        <v>147</v>
+      </c>
+      <c r="P62" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>212</v>
+      </c>
+      <c r="S62" t="s">
+        <v>16</v>
+      </c>
+      <c r="T62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63" t="s">
+        <v>213</v>
+      </c>
+      <c r="H63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I63" t="s">
+        <v>57</v>
+      </c>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+      <c r="K63" t="s">
+        <v>60</v>
+      </c>
+      <c r="L63" t="s">
+        <v>82</v>
+      </c>
+      <c r="M63" t="s">
+        <v>151</v>
+      </c>
+      <c r="P63" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>214</v>
+      </c>
+      <c r="S63" t="s">
+        <v>16</v>
+      </c>
+      <c r="T63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64" t="s">
+        <v>215</v>
+      </c>
+      <c r="F64" t="s">
+        <v>80</v>
+      </c>
+      <c r="G64" t="s">
+        <v>57</v>
+      </c>
+      <c r="J64" t="s">
+        <v>91</v>
+      </c>
+      <c r="K64" t="s">
+        <v>13</v>
+      </c>
+      <c r="L64" t="s">
+        <v>144</v>
+      </c>
+      <c r="M64" t="s">
+        <v>201</v>
+      </c>
+      <c r="N64" t="s">
+        <v>155</v>
+      </c>
+      <c r="P64" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>216</v>
+      </c>
+      <c r="S64" t="s">
+        <v>16</v>
+      </c>
+      <c r="T64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" t="s">
+        <v>217</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="J65" t="s">
+        <v>161</v>
+      </c>
+      <c r="K65" t="s">
+        <v>135</v>
+      </c>
+      <c r="L65" t="s">
+        <v>173</v>
+      </c>
+      <c r="M65" t="s">
+        <v>78</v>
+      </c>
+      <c r="P65" t="s">
+        <v>4</v>
+      </c>
+      <c r="S65" t="s">
+        <v>16</v>
+      </c>
+      <c r="T65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" t="s">
+        <v>218</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" t="s">
+        <v>72</v>
+      </c>
+      <c r="K66" t="s">
+        <v>54</v>
+      </c>
+      <c r="L66" t="s">
+        <v>92</v>
+      </c>
+      <c r="M66" t="s">
+        <v>73</v>
+      </c>
+      <c r="P66" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>219</v>
+      </c>
+      <c r="S66" t="s">
+        <v>16</v>
+      </c>
+      <c r="T66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" t="s">
+        <v>220</v>
+      </c>
+      <c r="H67" t="s">
+        <v>80</v>
+      </c>
+      <c r="I67" t="s">
+        <v>57</v>
+      </c>
+      <c r="J67" t="s">
+        <v>221</v>
+      </c>
+      <c r="K67" t="s">
+        <v>63</v>
+      </c>
+      <c r="L67" t="s">
+        <v>68</v>
+      </c>
+      <c r="M67" t="s">
+        <v>63</v>
+      </c>
+      <c r="P67" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>222</v>
+      </c>
+      <c r="S67" t="s">
+        <v>16</v>
+      </c>
+      <c r="T67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68" t="s">
+        <v>223</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="J68" t="s">
+        <v>224</v>
+      </c>
+      <c r="K68" t="s">
+        <v>54</v>
+      </c>
+      <c r="L68" t="s">
+        <v>154</v>
+      </c>
+      <c r="M68" t="s">
+        <v>68</v>
+      </c>
+      <c r="P68" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>15</v>
+      </c>
+      <c r="S68" t="s">
+        <v>16</v>
+      </c>
+      <c r="T68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" t="s">
+        <v>225</v>
+      </c>
+      <c r="G69" t="s">
+        <v>80</v>
+      </c>
+      <c r="J69" t="s">
+        <v>226</v>
+      </c>
+      <c r="K69" t="s">
+        <v>41</v>
+      </c>
+      <c r="L69" t="s">
+        <v>12</v>
+      </c>
+      <c r="M69" t="s">
+        <v>14</v>
+      </c>
+      <c r="P69" t="s">
+        <v>4</v>
+      </c>
+      <c r="S69" t="s">
+        <v>16</v>
+      </c>
+      <c r="T69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70" t="s">
+        <v>227</v>
+      </c>
+      <c r="D70" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>133</v>
+      </c>
+      <c r="J70" t="s">
+        <v>228</v>
+      </c>
+      <c r="K70" t="s">
+        <v>229</v>
+      </c>
+      <c r="L70" t="s">
+        <v>154</v>
+      </c>
+      <c r="M70" t="s">
+        <v>169</v>
+      </c>
+      <c r="P70" t="s">
+        <v>4</v>
+      </c>
+      <c r="S70" t="s">
+        <v>16</v>
+      </c>
+      <c r="T70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71" t="s">
+        <v>230</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>231</v>
+      </c>
+      <c r="G71" t="s">
+        <v>57</v>
+      </c>
+      <c r="J71" t="s">
+        <v>232</v>
+      </c>
+      <c r="K71" t="s">
+        <v>229</v>
+      </c>
+      <c r="L71" t="s">
+        <v>154</v>
+      </c>
+      <c r="M71" t="s">
+        <v>41</v>
+      </c>
+      <c r="P71" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>233</v>
+      </c>
+      <c r="S71" t="s">
+        <v>16</v>
+      </c>
+      <c r="T71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72" t="s">
+        <v>234</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" t="s">
+        <v>235</v>
+      </c>
+      <c r="K72" t="s">
+        <v>14</v>
+      </c>
+      <c r="M72" t="s">
+        <v>13</v>
+      </c>
+      <c r="P72" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>236</v>
+      </c>
+      <c r="S72" t="s">
+        <v>16</v>
+      </c>
+      <c r="T72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73" t="s">
+        <v>237</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="J73" t="s">
+        <v>238</v>
+      </c>
+      <c r="K73" t="s">
+        <v>229</v>
+      </c>
+      <c r="M73" t="s">
+        <v>239</v>
+      </c>
+      <c r="P73" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>240</v>
+      </c>
+      <c r="S73" t="s">
+        <v>16</v>
+      </c>
+      <c r="T73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74" t="s">
+        <v>241</v>
+      </c>
+      <c r="E74" t="s">
+        <v>80</v>
+      </c>
+      <c r="J74" t="s">
+        <v>3</v>
+      </c>
+      <c r="P74" t="s">
+        <v>4</v>
+      </c>
+      <c r="S74" t="s">
+        <v>16</v>
+      </c>
+      <c r="T74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="A75" t="s">
+        <v>242</v>
+      </c>
+      <c r="D75" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" t="s">
+        <v>133</v>
+      </c>
+      <c r="F75" t="s">
+        <v>52</v>
+      </c>
+      <c r="G75" t="s">
+        <v>58</v>
+      </c>
+      <c r="J75" t="s">
+        <v>243</v>
+      </c>
+      <c r="K75" t="s">
+        <v>119</v>
+      </c>
+      <c r="L75" t="s">
+        <v>24</v>
+      </c>
+      <c r="M75" t="s">
+        <v>140</v>
+      </c>
+      <c r="N75" t="s">
+        <v>244</v>
+      </c>
+      <c r="P75" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>123</v>
+      </c>
+      <c r="S75" t="s">
+        <v>16</v>
+      </c>
+      <c r="T75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76" t="s">
+        <v>245</v>
+      </c>
+      <c r="D76" t="s">
+        <v>58</v>
+      </c>
+      <c r="H76" t="s">
+        <v>90</v>
+      </c>
+      <c r="J76" t="s">
+        <v>189</v>
+      </c>
+      <c r="K76" t="s">
+        <v>130</v>
+      </c>
+      <c r="L76" t="s">
+        <v>55</v>
+      </c>
+      <c r="M76" t="s">
+        <v>69</v>
+      </c>
+      <c r="P76" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>246</v>
+      </c>
+      <c r="S76" t="s">
+        <v>16</v>
+      </c>
+      <c r="T76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="A77" t="s">
+        <v>247</v>
+      </c>
+      <c r="D77" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" t="s">
+        <v>57</v>
+      </c>
+      <c r="F77" t="s">
+        <v>58</v>
+      </c>
+      <c r="G77" t="s">
+        <v>10</v>
+      </c>
+      <c r="J77" t="s">
+        <v>248</v>
+      </c>
+      <c r="K77" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" t="s">
+        <v>92</v>
+      </c>
+      <c r="M77" t="s">
+        <v>249</v>
+      </c>
+      <c r="P77" t="s">
+        <v>4</v>
+      </c>
+      <c r="S77" t="s">
+        <v>16</v>
+      </c>
+      <c r="T77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78" t="s">
+        <v>250</v>
+      </c>
+      <c r="D78" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78" t="s">
+        <v>90</v>
+      </c>
+      <c r="J78" t="s">
+        <v>161</v>
+      </c>
+      <c r="K78" t="s">
+        <v>135</v>
+      </c>
+      <c r="L78" t="s">
+        <v>92</v>
+      </c>
+      <c r="M78" t="s">
+        <v>69</v>
+      </c>
+      <c r="P78" t="s">
+        <v>4</v>
+      </c>
+      <c r="S78" t="s">
+        <v>16</v>
+      </c>
+      <c r="T78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="A79" t="s">
+        <v>251</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2</v>
+      </c>
+      <c r="J79" t="s">
+        <v>81</v>
+      </c>
+      <c r="K79" t="s">
+        <v>22</v>
+      </c>
+      <c r="L79" t="s">
+        <v>68</v>
+      </c>
+      <c r="M79" t="s">
+        <v>73</v>
+      </c>
+      <c r="P79" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>252</v>
+      </c>
+      <c r="S79" t="s">
+        <v>16</v>
+      </c>
+      <c r="T79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80" t="s">
+        <v>253</v>
+      </c>
+      <c r="H80" t="s">
+        <v>90</v>
+      </c>
+      <c r="J80" t="s">
+        <v>221</v>
+      </c>
+      <c r="K80" t="s">
+        <v>135</v>
+      </c>
+      <c r="L80" t="s">
+        <v>12</v>
+      </c>
+      <c r="M80" t="s">
+        <v>169</v>
+      </c>
+      <c r="P80" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>254</v>
+      </c>
+      <c r="S80" t="s">
+        <v>16</v>
+      </c>
+      <c r="T80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
+      <c r="A81" t="s">
+        <v>255</v>
+      </c>
+      <c r="G81" t="s">
+        <v>90</v>
+      </c>
+      <c r="H81" t="s">
+        <v>58</v>
+      </c>
+      <c r="J81" t="s">
+        <v>256</v>
+      </c>
+      <c r="K81" t="s">
+        <v>13</v>
+      </c>
+      <c r="L81" t="s">
+        <v>12</v>
+      </c>
+      <c r="M81" t="s">
+        <v>201</v>
+      </c>
+      <c r="P81" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>257</v>
+      </c>
+      <c r="S81" t="s">
+        <v>16</v>
+      </c>
+      <c r="T81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
+      <c r="A82" t="s">
+        <v>258</v>
+      </c>
+      <c r="E82" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82" t="s">
+        <v>90</v>
+      </c>
+      <c r="J82" t="s">
+        <v>186</v>
+      </c>
+      <c r="K82" t="s">
+        <v>12</v>
+      </c>
+      <c r="M82" t="s">
+        <v>154</v>
+      </c>
+      <c r="P82" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>259</v>
+      </c>
+      <c r="S82" t="s">
+        <v>16</v>
+      </c>
+      <c r="T82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
+      <c r="A83" t="s">
+        <v>260</v>
+      </c>
+      <c r="D83" t="s">
+        <v>90</v>
+      </c>
+      <c r="J83" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" t="s">
+        <v>16</v>
+      </c>
+      <c r="T83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
+      <c r="A84" t="s">
+        <v>261</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2</v>
+      </c>
+      <c r="J84" t="s">
+        <v>3</v>
+      </c>
+      <c r="P84" t="s">
+        <v>30</v>
+      </c>
+      <c r="S84" t="s">
+        <v>16</v>
+      </c>
+      <c r="T84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
+      <c r="A85" t="s">
+        <v>262</v>
+      </c>
+      <c r="D85" t="s">
+        <v>90</v>
+      </c>
+      <c r="J85" t="s">
+        <v>263</v>
+      </c>
+      <c r="K85" t="s">
+        <v>63</v>
+      </c>
+      <c r="L85" t="s">
+        <v>92</v>
+      </c>
+      <c r="M85" t="s">
+        <v>63</v>
+      </c>
+      <c r="P85" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>264</v>
+      </c>
+      <c r="S85" t="s">
+        <v>16</v>
+      </c>
+      <c r="T85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
+      <c r="A86" t="s">
+        <v>265</v>
+      </c>
+      <c r="D86" t="s">
+        <v>266</v>
+      </c>
+      <c r="E86" t="s">
+        <v>57</v>
+      </c>
+      <c r="J86" t="s">
+        <v>267</v>
+      </c>
+      <c r="K86" t="s">
+        <v>60</v>
+      </c>
+      <c r="L86" t="s">
+        <v>55</v>
+      </c>
+      <c r="M86" t="s">
+        <v>41</v>
+      </c>
+      <c r="P86" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>268</v>
+      </c>
+      <c r="S86" t="s">
+        <v>16</v>
+      </c>
+      <c r="T86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
+      <c r="A87" t="s">
+        <v>269</v>
+      </c>
+      <c r="E87" t="s">
+        <v>266</v>
+      </c>
+      <c r="J87" t="s">
+        <v>267</v>
+      </c>
+      <c r="K87" t="s">
+        <v>22</v>
+      </c>
+      <c r="L87" t="s">
+        <v>13</v>
+      </c>
+      <c r="M87" t="s">
+        <v>78</v>
+      </c>
+      <c r="P87" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>270</v>
+      </c>
+      <c r="S87" t="s">
+        <v>16</v>
+      </c>
+      <c r="T87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
+      <c r="A88" t="s">
+        <v>271</v>
+      </c>
+      <c r="D88" t="s">
+        <v>272</v>
+      </c>
+      <c r="E88" t="s">
+        <v>52</v>
+      </c>
+      <c r="F88" t="s">
+        <v>58</v>
+      </c>
+      <c r="G88" t="s">
+        <v>57</v>
+      </c>
+      <c r="J88" t="s">
+        <v>158</v>
+      </c>
+      <c r="K88" t="s">
+        <v>60</v>
+      </c>
+      <c r="L88" t="s">
+        <v>144</v>
+      </c>
+      <c r="M88" t="s">
+        <v>78</v>
+      </c>
+      <c r="P88" t="s">
+        <v>30</v>
+      </c>
+      <c r="S88" t="s">
+        <v>16</v>
+      </c>
+      <c r="T88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
+      <c r="A89" t="s">
+        <v>273</v>
+      </c>
+      <c r="D89" t="s">
+        <v>274</v>
+      </c>
+      <c r="E89" t="s">
+        <v>58</v>
+      </c>
+      <c r="J89" t="s">
+        <v>263</v>
+      </c>
+      <c r="K89" t="s">
+        <v>63</v>
+      </c>
+      <c r="L89" t="s">
+        <v>144</v>
+      </c>
+      <c r="M89" t="s">
+        <v>78</v>
+      </c>
+      <c r="P89" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>275</v>
+      </c>
+      <c r="S89" t="s">
+        <v>16</v>
+      </c>
+      <c r="T89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
+      <c r="A90" t="s">
+        <v>276</v>
+      </c>
+      <c r="D90" t="s">
+        <v>266</v>
+      </c>
+      <c r="E90" t="s">
+        <v>57</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+      <c r="J90" t="s">
+        <v>277</v>
+      </c>
+      <c r="K90" t="s">
+        <v>63</v>
+      </c>
+      <c r="L90" t="s">
+        <v>154</v>
+      </c>
+      <c r="M90" t="s">
+        <v>169</v>
+      </c>
+      <c r="P90" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>278</v>
+      </c>
+      <c r="S90" t="s">
+        <v>16</v>
+      </c>
+      <c r="T90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
+      <c r="A91" t="s">
+        <v>279</v>
+      </c>
+      <c r="D91" t="s">
+        <v>266</v>
+      </c>
+      <c r="J91" t="s">
+        <v>280</v>
+      </c>
+      <c r="K91" t="s">
+        <v>14</v>
+      </c>
+      <c r="L91" t="s">
+        <v>154</v>
+      </c>
+      <c r="M91" t="s">
+        <v>73</v>
+      </c>
+      <c r="P91" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" t="s">
+        <v>16</v>
+      </c>
+      <c r="T91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="A92" t="s">
+        <v>281</v>
+      </c>
+      <c r="E92" t="s">
+        <v>266</v>
+      </c>
+      <c r="J92" t="s">
+        <v>282</v>
+      </c>
+      <c r="K92" t="s">
+        <v>13</v>
+      </c>
+      <c r="M92" t="s">
+        <v>249</v>
+      </c>
+      <c r="P92" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>283</v>
+      </c>
+      <c r="S92" t="s">
+        <v>16</v>
+      </c>
+      <c r="T92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="A93" t="s">
+        <v>284</v>
+      </c>
+      <c r="D93" t="s">
+        <v>96</v>
+      </c>
+      <c r="J93" t="s">
+        <v>146</v>
+      </c>
+      <c r="K93" t="s">
+        <v>63</v>
+      </c>
+      <c r="L93" t="s">
+        <v>13</v>
+      </c>
+      <c r="M93" t="s">
+        <v>60</v>
+      </c>
+      <c r="P93" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>285</v>
+      </c>
+      <c r="S93" t="s">
+        <v>16</v>
+      </c>
+      <c r="T93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="A94" t="s">
+        <v>286</v>
+      </c>
+      <c r="E94" t="s">
+        <v>96</v>
+      </c>
+      <c r="J94" t="s">
+        <v>69</v>
+      </c>
+      <c r="L94" t="s">
+        <v>173</v>
+      </c>
+      <c r="N94" t="s">
+        <v>147</v>
+      </c>
+      <c r="P94" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>287</v>
+      </c>
+      <c r="S94" t="s">
+        <v>16</v>
+      </c>
+      <c r="T94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
+      <c r="A95" t="s">
+        <v>288</v>
+      </c>
+      <c r="D95" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" t="s">
+        <v>289</v>
+      </c>
+      <c r="J95" t="s">
+        <v>3</v>
+      </c>
+      <c r="P95" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>290</v>
+      </c>
+      <c r="S95" t="s">
+        <v>16</v>
+      </c>
+      <c r="T95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
+      <c r="A96" t="s">
+        <v>291</v>
+      </c>
+      <c r="D96" t="s">
+        <v>96</v>
+      </c>
+      <c r="J96" t="s">
+        <v>3</v>
+      </c>
+      <c r="P96" t="s">
+        <v>4</v>
+      </c>
+      <c r="S96" t="s">
+        <v>16</v>
+      </c>
+      <c r="T96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
+      <c r="A97" t="s">
+        <v>292</v>
+      </c>
+      <c r="D97" t="s">
+        <v>20</v>
+      </c>
+      <c r="J97" t="s">
+        <v>3</v>
+      </c>
+      <c r="P97" t="s">
+        <v>4</v>
+      </c>
+      <c r="S97" t="s">
+        <v>16</v>
+      </c>
+      <c r="T97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
+      <c r="A98" t="s">
+        <v>293</v>
+      </c>
+      <c r="D98" t="s">
+        <v>20</v>
+      </c>
+      <c r="J98" t="s">
+        <v>3</v>
+      </c>
+      <c r="P98" t="s">
+        <v>4</v>
+      </c>
+      <c r="S98" t="s">
+        <v>16</v>
+      </c>
+      <c r="T98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
+      <c r="A99" t="s">
+        <v>294</v>
+      </c>
+      <c r="D99" t="s">
+        <v>96</v>
+      </c>
+      <c r="J99" t="s">
+        <v>3</v>
+      </c>
+      <c r="P99" t="s">
+        <v>4</v>
+      </c>
+      <c r="S99" t="s">
+        <v>16</v>
+      </c>
+      <c r="T99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20">
+      <c r="A100" t="s">
+        <v>177</v>
+      </c>
+      <c r="D100" t="s">
+        <v>178</v>
+      </c>
+      <c r="E100" t="s">
+        <v>179</v>
+      </c>
+      <c r="F100" t="s">
+        <v>180</v>
+      </c>
+      <c r="G100" t="s">
+        <v>181</v>
+      </c>
+      <c r="H100" t="s">
+        <v>182</v>
+      </c>
+      <c r="J100" t="s">
+        <v>183</v>
+      </c>
+      <c r="K100" t="s">
+        <v>22</v>
+      </c>
+      <c r="L100" t="s">
+        <v>173</v>
+      </c>
+      <c r="M100" t="s">
+        <v>13</v>
+      </c>
+      <c r="P100" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" t="s">
+        <v>16</v>
+      </c>
+      <c r="T100" t="s">
         <v>17</v>
       </c>
     </row>

--- a/tables/kom.xlsx
+++ b/tables/kom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="407">
   <si>
     <t>203-022-003 60</t>
   </si>
@@ -899,6 +899,342 @@
   </si>
   <si>
     <t>192-733-071 78</t>
+  </si>
+  <si>
+    <t>К</t>
+  </si>
+  <si>
+    <t>172-743-416 72</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - БИ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ПМИ 2 - БИ 3 - ПРИ мех 4 - МКН </t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - ПРИ мех </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - ПРИ мех </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - БИ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ПМИ 2 - ПРИ мех 4 - ИСТ 6 - ПРИ соц </t>
+  </si>
+  <si>
+    <t>164-991-252 04</t>
+  </si>
+  <si>
+    <t>191-504-323 49</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>162-738-573 91</t>
+  </si>
+  <si>
+    <t>159-685-464 34</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - ПМИ 5 - МКН </t>
+  </si>
+  <si>
+    <t>125637</t>
+  </si>
+  <si>
+    <t>194-287-547 17</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ИСТ 5 - МКН </t>
+  </si>
+  <si>
+    <t>159-182-152 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - ЭиН 5 - БСТ </t>
+  </si>
+  <si>
+    <t>159-708-977 32</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>153-721-250 41</t>
+  </si>
+  <si>
+    <t>161-294-817 69</t>
+  </si>
+  <si>
+    <t>175-548-384 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - ПРИ мех 4 - БИ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - БИ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - ПМИ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - МКН 5 - ИСТ </t>
+  </si>
+  <si>
+    <t>156-766-504 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - ПРИ мех 5 - ПРИ соц 6 - БИ </t>
+  </si>
+  <si>
+    <t>188-131-313 67</t>
+  </si>
+  <si>
+    <t>158-786-369 39</t>
+  </si>
+  <si>
+    <t>159-664-149 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - ПРИ мех 5 - МКН </t>
+  </si>
+  <si>
+    <t>159-544-653 07</t>
+  </si>
+  <si>
+    <t>163-220-177 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - ПРИ мех 4 - ПМИ 5 - МКН </t>
+  </si>
+  <si>
+    <t>189-308-416 04</t>
+  </si>
+  <si>
+    <t>165-473-790 00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ПРИ мех 2 - ПРИ соц 4 - ПМИ 5 - МКН </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - БИ 2 - ПМИ </t>
+  </si>
+  <si>
+    <t>149-773-392 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ИСТ 3 - ПМИ 4 - ПРИ мех 5 - ПРИ соц </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - ИСТ 4 - ПРИ мех 5 - МКН </t>
+  </si>
+  <si>
+    <t>160-596-148 74</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - МКН 3 - ПРИ мех </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - БИ 2 - ПМИ 3 - ИСТ 4 - ПРИ соц 5 - ПРИ мех </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ПРИ мех 2 - ПРИ соц 3 - ПМИ 5 - МКН 6 - ПРИ экон мех ЗО 7 - ПРИ соц ЗО </t>
+  </si>
+  <si>
+    <t>193-152-200 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - ПМИ 4 - МКН 5 - ПРИ мех </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - ИСТ 3 - БИ 4 - ПРИ мех </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - ИТиСС 4 - ИСТ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - БИ 2 - ПРИ мех 3 - ПМИ 4 - ПРИ соц 5 - ИСТ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ИСТ </t>
+  </si>
+  <si>
+    <t>140-026-490 04</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ПМИ 3 - ПРИ мех 4 - ИСТ </t>
+  </si>
+  <si>
+    <t>189-803-372 19</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - ИСТ 4 - ПРИ мех 5 - ПРИ соц 6 - ИТиСС </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - ПРИ мех </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ИТиСС </t>
+  </si>
+  <si>
+    <t>148-968-648 45</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ПРИ мех </t>
+  </si>
+  <si>
+    <t>167-909-683 31</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>193-152-262 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - ПРИ мех 5 - ПМИ </t>
+  </si>
+  <si>
+    <t>164-619-591 95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ПРИ мех 4 - БИ 5 - ПРИ соц </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Геол 2 - БИ 5 - БСТ </t>
+  </si>
+  <si>
+    <t>162-175-695 72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ИТиСС 3 - ИСТ </t>
+  </si>
+  <si>
+    <t>160-900-192 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - ИСТ 3 - ЭиН 4 - КТЭС </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - ИСТ 3 - ПРИ мех 4 - ПМИ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - ИТиСС 3 - БСТ 4 - Геол </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - МКН 2 - ПМИ 3 - ИСТ 4 - ПРИ мех </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - МК 2 - Геол 3 - БИ </t>
+  </si>
+  <si>
+    <t>161-630-417 35</t>
+  </si>
+  <si>
+    <t>159-492-350 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ПМИ 2 - ПГ 3 - Геол 5 - БСТ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ИСТ 4 - ПМИ </t>
+  </si>
+  <si>
+    <t>156-230-696 59</t>
+  </si>
+  <si>
+    <t>162-432-259 42</t>
+  </si>
+  <si>
+    <t>161-802-660 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - ПРИ мех 4 - ПМИ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ПМИ 3 - МКН 4 - ПРИ мех </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - БИ 3 - МКН 4 - МиММ 5 - ПРИ соц </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - МКН 3 - ЭиН 4 - МиММ </t>
+  </si>
+  <si>
+    <t>163-358-700 73</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>160-727-823 67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - ПРИ экон мех ЗО 3 - ПРИ соц ЗО </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ПРИ экон мех ЗО </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - ПРИ экон мех ЗО </t>
+  </si>
+  <si>
+    <t>50-075-584 29</t>
+  </si>
+  <si>
+    <t>162-624-204 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - ПРИ мех 3 - ПРИ соц 4 - ПРИ экон мех ЗО 5 - ПРИ соц ЗО </t>
+  </si>
+  <si>
+    <t>160-144-783 38</t>
+  </si>
+  <si>
+    <t>161-953-229 73</t>
+  </si>
+  <si>
+    <t>178-363-588 18</t>
+  </si>
+  <si>
+    <t>161-297-654 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ПГ ЗО </t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T100"/>
+  <dimension ref="A1:T233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4466,42 +4802,5363 @@
     </row>
     <row r="100" spans="1:20">
       <c r="A100" t="s">
-        <v>177</v>
+        <v>102</v>
+      </c>
+      <c r="C100" t="s">
+        <v>295</v>
       </c>
       <c r="D100" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="E100" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="F100" t="s">
-        <v>180</v>
+        <v>58</v>
       </c>
       <c r="G100" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="H100" t="s">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="J100" t="s">
+        <v>103</v>
+      </c>
+      <c r="K100" t="s">
+        <v>104</v>
+      </c>
+      <c r="L100" t="s">
+        <v>105</v>
+      </c>
+      <c r="M100" t="s">
+        <v>106</v>
+      </c>
+      <c r="N100" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" t="s">
+        <v>16</v>
+      </c>
+      <c r="S100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" t="s">
+        <v>295</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" t="s">
+        <v>133</v>
+      </c>
+      <c r="F101" t="s">
+        <v>52</v>
+      </c>
+      <c r="G101" t="s">
+        <v>58</v>
+      </c>
+      <c r="H101" t="s">
+        <v>57</v>
+      </c>
+      <c r="J101" t="s">
+        <v>108</v>
+      </c>
+      <c r="K101" t="s">
+        <v>109</v>
+      </c>
+      <c r="L101" t="s">
+        <v>60</v>
+      </c>
+      <c r="M101" t="s">
+        <v>110</v>
+      </c>
+      <c r="N101" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" t="s">
+        <v>4</v>
+      </c>
+      <c r="R101" t="s">
+        <v>16</v>
+      </c>
+      <c r="S101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20">
+      <c r="A102" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102" t="s">
+        <v>295</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" t="s">
+        <v>133</v>
+      </c>
+      <c r="F102" t="s">
+        <v>58</v>
+      </c>
+      <c r="G102" t="s">
+        <v>52</v>
+      </c>
+      <c r="H102" t="s">
+        <v>10</v>
+      </c>
+      <c r="J102" t="s">
+        <v>112</v>
+      </c>
+      <c r="K102" t="s">
+        <v>113</v>
+      </c>
+      <c r="L102" t="s">
+        <v>105</v>
+      </c>
+      <c r="M102" t="s">
+        <v>55</v>
+      </c>
+      <c r="N102" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" t="s">
+        <v>30</v>
+      </c>
+      <c r="R102" t="s">
+        <v>16</v>
+      </c>
+      <c r="S102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20">
+      <c r="A103" t="s">
+        <v>296</v>
+      </c>
+      <c r="C103" t="s">
+        <v>295</v>
+      </c>
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" t="s">
+        <v>133</v>
+      </c>
+      <c r="J103" t="s">
+        <v>297</v>
+      </c>
+      <c r="K103" t="s">
+        <v>298</v>
+      </c>
+      <c r="L103" t="s">
+        <v>60</v>
+      </c>
+      <c r="M103" t="s">
+        <v>55</v>
+      </c>
+      <c r="N103" t="s">
+        <v>3</v>
+      </c>
+      <c r="P103" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>299</v>
+      </c>
+      <c r="R103" t="s">
+        <v>16</v>
+      </c>
+      <c r="S103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20">
+      <c r="A104" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104" t="s">
+        <v>295</v>
+      </c>
+      <c r="H104" t="s">
+        <v>133</v>
+      </c>
+      <c r="J104" t="s">
+        <v>115</v>
+      </c>
+      <c r="K104" t="s">
+        <v>109</v>
+      </c>
+      <c r="L104" t="s">
+        <v>24</v>
+      </c>
+      <c r="M104" t="s">
+        <v>106</v>
+      </c>
+      <c r="N104" t="s">
+        <v>3</v>
+      </c>
+      <c r="P104" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>300</v>
+      </c>
+      <c r="R104" t="s">
+        <v>16</v>
+      </c>
+      <c r="S104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20">
+      <c r="A105" t="s">
+        <v>176</v>
+      </c>
+      <c r="C105" t="s">
+        <v>295</v>
+      </c>
+      <c r="D105" t="s">
+        <v>133</v>
+      </c>
+      <c r="E105" t="s">
+        <v>52</v>
+      </c>
+      <c r="F105" t="s">
+        <v>58</v>
+      </c>
+      <c r="G105" t="s">
+        <v>57</v>
+      </c>
+      <c r="J105" t="s">
+        <v>301</v>
+      </c>
+      <c r="K105" t="s">
+        <v>140</v>
+      </c>
+      <c r="L105" t="s">
+        <v>13</v>
+      </c>
+      <c r="M105" t="s">
+        <v>140</v>
+      </c>
+      <c r="N105" t="s">
+        <v>3</v>
+      </c>
+      <c r="P105" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>302</v>
+      </c>
+      <c r="R105" t="s">
+        <v>16</v>
+      </c>
+      <c r="S105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20">
+      <c r="A106" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" t="s">
+        <v>295</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" t="s">
+        <v>133</v>
+      </c>
+      <c r="J106" t="s">
+        <v>118</v>
+      </c>
+      <c r="K106" t="s">
+        <v>119</v>
+      </c>
+      <c r="L106" t="s">
+        <v>54</v>
+      </c>
+      <c r="M106" t="s">
+        <v>60</v>
+      </c>
+      <c r="N106" t="s">
+        <v>3</v>
+      </c>
+      <c r="P106" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>303</v>
+      </c>
+      <c r="R106" t="s">
+        <v>16</v>
+      </c>
+      <c r="S106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20">
+      <c r="A107" t="s">
+        <v>121</v>
+      </c>
+      <c r="C107" t="s">
+        <v>295</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" t="s">
+        <v>58</v>
+      </c>
+      <c r="F107" t="s">
+        <v>57</v>
+      </c>
+      <c r="G107" t="s">
+        <v>133</v>
+      </c>
+      <c r="J107" t="s">
+        <v>122</v>
+      </c>
+      <c r="K107" t="s">
+        <v>24</v>
+      </c>
+      <c r="L107" t="s">
+        <v>24</v>
+      </c>
+      <c r="M107" t="s">
+        <v>55</v>
+      </c>
+      <c r="N107" t="s">
+        <v>3</v>
+      </c>
+      <c r="P107" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>304</v>
+      </c>
+      <c r="R107" t="s">
+        <v>16</v>
+      </c>
+      <c r="S107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20">
+      <c r="A108" t="s">
+        <v>124</v>
+      </c>
+      <c r="C108" t="s">
+        <v>295</v>
+      </c>
+      <c r="F108" t="s">
+        <v>133</v>
+      </c>
+      <c r="H108" t="s">
+        <v>57</v>
+      </c>
+      <c r="J108" t="s">
+        <v>125</v>
+      </c>
+      <c r="K108" t="s">
+        <v>109</v>
+      </c>
+      <c r="L108" t="s">
+        <v>24</v>
+      </c>
+      <c r="M108" t="s">
+        <v>93</v>
+      </c>
+      <c r="N108" t="s">
+        <v>3</v>
+      </c>
+      <c r="P108" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>305</v>
+      </c>
+      <c r="R108" t="s">
+        <v>16</v>
+      </c>
+      <c r="S108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20">
+      <c r="A109" t="s">
+        <v>127</v>
+      </c>
+      <c r="C109" t="s">
+        <v>295</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" t="s">
+        <v>133</v>
+      </c>
+      <c r="F109" t="s">
+        <v>52</v>
+      </c>
+      <c r="G109" t="s">
+        <v>58</v>
+      </c>
+      <c r="H109" t="s">
+        <v>10</v>
+      </c>
+      <c r="J109" t="s">
+        <v>125</v>
+      </c>
+      <c r="K109" t="s">
+        <v>60</v>
+      </c>
+      <c r="L109" t="s">
+        <v>24</v>
+      </c>
+      <c r="M109" t="s">
+        <v>54</v>
+      </c>
+      <c r="N109" t="s">
+        <v>3</v>
+      </c>
+      <c r="P109" t="s">
+        <v>30</v>
+      </c>
+      <c r="R109" t="s">
+        <v>16</v>
+      </c>
+      <c r="S109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20">
+      <c r="A110" t="s">
+        <v>128</v>
+      </c>
+      <c r="C110" t="s">
+        <v>295</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" t="s">
+        <v>133</v>
+      </c>
+      <c r="J110" t="s">
+        <v>129</v>
+      </c>
+      <c r="K110" t="s">
+        <v>130</v>
+      </c>
+      <c r="L110" t="s">
+        <v>54</v>
+      </c>
+      <c r="M110" t="s">
+        <v>55</v>
+      </c>
+      <c r="N110" t="s">
+        <v>3</v>
+      </c>
+      <c r="P110" t="s">
+        <v>4</v>
+      </c>
+      <c r="R110" t="s">
+        <v>16</v>
+      </c>
+      <c r="S110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20">
+      <c r="A111" t="s">
+        <v>56</v>
+      </c>
+      <c r="C111" t="s">
+        <v>295</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" t="s">
+        <v>52</v>
+      </c>
+      <c r="F111" t="s">
+        <v>57</v>
+      </c>
+      <c r="G111" t="s">
+        <v>58</v>
+      </c>
+      <c r="H111" t="s">
+        <v>133</v>
+      </c>
+      <c r="J111" t="s">
+        <v>59</v>
+      </c>
+      <c r="K111" t="s">
+        <v>22</v>
+      </c>
+      <c r="L111" t="s">
+        <v>54</v>
+      </c>
+      <c r="M111" t="s">
+        <v>60</v>
+      </c>
+      <c r="N111" t="s">
+        <v>3</v>
+      </c>
+      <c r="P111" t="s">
+        <v>4</v>
+      </c>
+      <c r="R111" t="s">
+        <v>16</v>
+      </c>
+      <c r="S111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20">
+      <c r="A112" t="s">
+        <v>306</v>
+      </c>
+      <c r="C112" t="s">
+        <v>295</v>
+      </c>
+      <c r="D112" t="s">
+        <v>133</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>52</v>
+      </c>
+      <c r="G112" t="s">
+        <v>58</v>
+      </c>
+      <c r="H112" t="s">
+        <v>57</v>
+      </c>
+      <c r="J112" t="s">
+        <v>21</v>
+      </c>
+      <c r="K112" t="s">
+        <v>22</v>
+      </c>
+      <c r="L112" t="s">
+        <v>78</v>
+      </c>
+      <c r="M112" t="s">
+        <v>106</v>
+      </c>
+      <c r="N112" t="s">
+        <v>3</v>
+      </c>
+      <c r="P112" t="s">
+        <v>4</v>
+      </c>
+      <c r="R112" t="s">
+        <v>16</v>
+      </c>
+      <c r="S112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
+      <c r="A113" t="s">
+        <v>131</v>
+      </c>
+      <c r="C113" t="s">
+        <v>295</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>52</v>
+      </c>
+      <c r="F113" t="s">
+        <v>133</v>
+      </c>
+      <c r="G113" t="s">
+        <v>58</v>
+      </c>
+      <c r="J113" t="s">
+        <v>134</v>
+      </c>
+      <c r="K113" t="s">
+        <v>135</v>
+      </c>
+      <c r="L113" t="s">
+        <v>92</v>
+      </c>
+      <c r="M113" t="s">
+        <v>136</v>
+      </c>
+      <c r="N113" t="s">
+        <v>3</v>
+      </c>
+      <c r="P113" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>302</v>
+      </c>
+      <c r="R113" t="s">
+        <v>16</v>
+      </c>
+      <c r="S113" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19">
+      <c r="A114" t="s">
+        <v>138</v>
+      </c>
+      <c r="C114" t="s">
+        <v>295</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" t="s">
+        <v>133</v>
+      </c>
+      <c r="F114" t="s">
+        <v>52</v>
+      </c>
+      <c r="G114" t="s">
+        <v>57</v>
+      </c>
+      <c r="H114" t="s">
+        <v>58</v>
+      </c>
+      <c r="J114" t="s">
+        <v>139</v>
+      </c>
+      <c r="K114" t="s">
+        <v>54</v>
+      </c>
+      <c r="L114" t="s">
+        <v>92</v>
+      </c>
+      <c r="M114" t="s">
+        <v>140</v>
+      </c>
+      <c r="N114" t="s">
+        <v>3</v>
+      </c>
+      <c r="P114" t="s">
+        <v>30</v>
+      </c>
+      <c r="R114" t="s">
+        <v>16</v>
+      </c>
+      <c r="S114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19">
+      <c r="A115" t="s">
+        <v>141</v>
+      </c>
+      <c r="C115" t="s">
+        <v>295</v>
+      </c>
+      <c r="D115" t="s">
+        <v>57</v>
+      </c>
+      <c r="E115" t="s">
+        <v>133</v>
+      </c>
+      <c r="F115" t="s">
+        <v>52</v>
+      </c>
+      <c r="G115" t="s">
+        <v>58</v>
+      </c>
+      <c r="H115" t="s">
+        <v>9</v>
+      </c>
+      <c r="J115" t="s">
+        <v>139</v>
+      </c>
+      <c r="K115" t="s">
+        <v>63</v>
+      </c>
+      <c r="L115" t="s">
+        <v>55</v>
+      </c>
+      <c r="M115" t="s">
+        <v>106</v>
+      </c>
+      <c r="N115" t="s">
+        <v>3</v>
+      </c>
+      <c r="P115" t="s">
+        <v>4</v>
+      </c>
+      <c r="R115" t="s">
+        <v>16</v>
+      </c>
+      <c r="S115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19">
+      <c r="A116" t="s">
+        <v>49</v>
+      </c>
+      <c r="C116" t="s">
+        <v>295</v>
+      </c>
+      <c r="D116" t="s">
+        <v>133</v>
+      </c>
+      <c r="J116" t="s">
+        <v>53</v>
+      </c>
+      <c r="K116" t="s">
+        <v>54</v>
+      </c>
+      <c r="L116" t="s">
+        <v>54</v>
+      </c>
+      <c r="M116" t="s">
+        <v>55</v>
+      </c>
+      <c r="N116" t="s">
+        <v>3</v>
+      </c>
+      <c r="P116" t="s">
+        <v>4</v>
+      </c>
+      <c r="R116" t="s">
+        <v>16</v>
+      </c>
+      <c r="S116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19">
+      <c r="A117" t="s">
+        <v>142</v>
+      </c>
+      <c r="C117" t="s">
+        <v>295</v>
+      </c>
+      <c r="D117" t="s">
+        <v>52</v>
+      </c>
+      <c r="E117" t="s">
+        <v>133</v>
+      </c>
+      <c r="F117" t="s">
+        <v>9</v>
+      </c>
+      <c r="J117" t="s">
+        <v>143</v>
+      </c>
+      <c r="K117" t="s">
+        <v>24</v>
+      </c>
+      <c r="L117" t="s">
+        <v>144</v>
+      </c>
+      <c r="M117" t="s">
+        <v>60</v>
+      </c>
+      <c r="N117" t="s">
+        <v>3</v>
+      </c>
+      <c r="P117" t="s">
+        <v>30</v>
+      </c>
+      <c r="R117" t="s">
+        <v>16</v>
+      </c>
+      <c r="S117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
+      <c r="A118" t="s">
+        <v>307</v>
+      </c>
+      <c r="C118" t="s">
+        <v>295</v>
+      </c>
+      <c r="D118" t="s">
+        <v>58</v>
+      </c>
+      <c r="E118" t="s">
+        <v>52</v>
+      </c>
+      <c r="F118" t="s">
+        <v>57</v>
+      </c>
+      <c r="G118" t="s">
+        <v>133</v>
+      </c>
+      <c r="J118" t="s">
+        <v>308</v>
+      </c>
+      <c r="K118" t="s">
+        <v>13</v>
+      </c>
+      <c r="L118" t="s">
+        <v>144</v>
+      </c>
+      <c r="M118" t="s">
+        <v>140</v>
+      </c>
+      <c r="N118" t="s">
+        <v>3</v>
+      </c>
+      <c r="P118" t="s">
+        <v>30</v>
+      </c>
+      <c r="R118" t="s">
+        <v>16</v>
+      </c>
+      <c r="S118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
+      <c r="A119" t="s">
+        <v>145</v>
+      </c>
+      <c r="C119" t="s">
+        <v>295</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" t="s">
+        <v>133</v>
+      </c>
+      <c r="F119" t="s">
+        <v>58</v>
+      </c>
+      <c r="G119" t="s">
+        <v>52</v>
+      </c>
+      <c r="H119" t="s">
+        <v>10</v>
+      </c>
+      <c r="J119" t="s">
+        <v>146</v>
+      </c>
+      <c r="K119" t="s">
+        <v>60</v>
+      </c>
+      <c r="L119" t="s">
+        <v>144</v>
+      </c>
+      <c r="M119" t="s">
+        <v>13</v>
+      </c>
+      <c r="N119" t="s">
+        <v>147</v>
+      </c>
+      <c r="P119" t="s">
+        <v>4</v>
+      </c>
+      <c r="R119" t="s">
+        <v>16</v>
+      </c>
+      <c r="S119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
+      <c r="A120" t="s">
+        <v>309</v>
+      </c>
+      <c r="C120" t="s">
+        <v>295</v>
+      </c>
+      <c r="D120" t="s">
+        <v>133</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>52</v>
+      </c>
+      <c r="G120" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120" t="s">
+        <v>57</v>
+      </c>
+      <c r="J120" t="s">
+        <v>146</v>
+      </c>
+      <c r="K120" t="s">
+        <v>135</v>
+      </c>
+      <c r="L120" t="s">
+        <v>63</v>
+      </c>
+      <c r="M120" t="s">
+        <v>54</v>
+      </c>
+      <c r="N120" t="s">
+        <v>3</v>
+      </c>
+      <c r="P120" t="s">
+        <v>4</v>
+      </c>
+      <c r="R120" t="s">
+        <v>16</v>
+      </c>
+      <c r="S120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
+      <c r="A121" t="s">
+        <v>148</v>
+      </c>
+      <c r="C121" t="s">
+        <v>295</v>
+      </c>
+      <c r="D121" t="s">
+        <v>57</v>
+      </c>
+      <c r="E121" t="s">
+        <v>52</v>
+      </c>
+      <c r="F121" t="s">
+        <v>133</v>
+      </c>
+      <c r="J121" t="s">
+        <v>146</v>
+      </c>
+      <c r="K121" t="s">
+        <v>54</v>
+      </c>
+      <c r="L121" t="s">
+        <v>13</v>
+      </c>
+      <c r="M121" t="s">
+        <v>13</v>
+      </c>
+      <c r="N121" t="s">
+        <v>3</v>
+      </c>
+      <c r="P121" t="s">
+        <v>30</v>
+      </c>
+      <c r="R121" t="s">
+        <v>16</v>
+      </c>
+      <c r="S121" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
+      <c r="A122" t="s">
+        <v>150</v>
+      </c>
+      <c r="C122" t="s">
+        <v>295</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" t="s">
+        <v>133</v>
+      </c>
+      <c r="F122" t="s">
+        <v>57</v>
+      </c>
+      <c r="G122" t="s">
+        <v>52</v>
+      </c>
+      <c r="H122" t="s">
+        <v>10</v>
+      </c>
+      <c r="J122" t="s">
+        <v>146</v>
+      </c>
+      <c r="K122" t="s">
+        <v>54</v>
+      </c>
+      <c r="L122" t="s">
+        <v>78</v>
+      </c>
+      <c r="M122" t="s">
+        <v>151</v>
+      </c>
+      <c r="N122" t="s">
+        <v>3</v>
+      </c>
+      <c r="P122" t="s">
+        <v>4</v>
+      </c>
+      <c r="R122" t="s">
+        <v>16</v>
+      </c>
+      <c r="S122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
+      <c r="A123" t="s">
+        <v>310</v>
+      </c>
+      <c r="C123" t="s">
+        <v>295</v>
+      </c>
+      <c r="D123" t="s">
+        <v>133</v>
+      </c>
+      <c r="J123" t="s">
+        <v>311</v>
+      </c>
+      <c r="K123" t="s">
+        <v>24</v>
+      </c>
+      <c r="L123" t="s">
+        <v>60</v>
+      </c>
+      <c r="M123" t="s">
+        <v>14</v>
+      </c>
+      <c r="N123" t="s">
+        <v>3</v>
+      </c>
+      <c r="P123" t="s">
+        <v>4</v>
+      </c>
+      <c r="R123" t="s">
+        <v>16</v>
+      </c>
+      <c r="S123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
+      <c r="A124" t="s">
+        <v>152</v>
+      </c>
+      <c r="C124" t="s">
+        <v>295</v>
+      </c>
+      <c r="D124" t="s">
+        <v>58</v>
+      </c>
+      <c r="E124" t="s">
+        <v>52</v>
+      </c>
+      <c r="F124" t="s">
+        <v>133</v>
+      </c>
+      <c r="J124" t="s">
+        <v>153</v>
+      </c>
+      <c r="K124" t="s">
+        <v>135</v>
+      </c>
+      <c r="L124" t="s">
+        <v>154</v>
+      </c>
+      <c r="M124" t="s">
+        <v>151</v>
+      </c>
+      <c r="N124" t="s">
+        <v>155</v>
+      </c>
+      <c r="P124" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>312</v>
+      </c>
+      <c r="R124" t="s">
+        <v>16</v>
+      </c>
+      <c r="S124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
+      <c r="A125" t="s">
+        <v>157</v>
+      </c>
+      <c r="C125" t="s">
+        <v>295</v>
+      </c>
+      <c r="E125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>133</v>
+      </c>
+      <c r="G125" t="s">
+        <v>57</v>
+      </c>
+      <c r="H125" t="s">
+        <v>52</v>
+      </c>
+      <c r="J125" t="s">
+        <v>158</v>
+      </c>
+      <c r="K125" t="s">
+        <v>135</v>
+      </c>
+      <c r="L125" t="s">
+        <v>63</v>
+      </c>
+      <c r="M125" t="s">
+        <v>63</v>
+      </c>
+      <c r="N125" t="s">
+        <v>3</v>
+      </c>
+      <c r="P125" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>299</v>
+      </c>
+      <c r="R125" t="s">
+        <v>16</v>
+      </c>
+      <c r="S125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
+      <c r="A126" t="s">
+        <v>313</v>
+      </c>
+      <c r="C126" t="s">
+        <v>295</v>
+      </c>
+      <c r="D126" t="s">
+        <v>52</v>
+      </c>
+      <c r="E126" t="s">
+        <v>57</v>
+      </c>
+      <c r="F126" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" t="s">
+        <v>58</v>
+      </c>
+      <c r="H126" t="s">
+        <v>133</v>
+      </c>
+      <c r="J126" t="s">
         <v>183</v>
       </c>
-      <c r="K100" t="s">
+      <c r="K126" t="s">
         <v>22</v>
       </c>
-      <c r="L100" t="s">
+      <c r="L126" t="s">
         <v>173</v>
       </c>
-      <c r="M100" t="s">
+      <c r="M126" t="s">
         <v>13</v>
       </c>
-      <c r="P100" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" t="s">
-        <v>16</v>
-      </c>
-      <c r="T100" t="s">
+      <c r="N126" t="s">
+        <v>3</v>
+      </c>
+      <c r="P126" t="s">
+        <v>4</v>
+      </c>
+      <c r="R126" t="s">
+        <v>16</v>
+      </c>
+      <c r="S126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19">
+      <c r="A127" t="s">
+        <v>160</v>
+      </c>
+      <c r="C127" t="s">
+        <v>295</v>
+      </c>
+      <c r="D127" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" t="s">
+        <v>57</v>
+      </c>
+      <c r="F127" t="s">
+        <v>58</v>
+      </c>
+      <c r="G127" t="s">
+        <v>133</v>
+      </c>
+      <c r="J127" t="s">
+        <v>161</v>
+      </c>
+      <c r="K127" t="s">
+        <v>63</v>
+      </c>
+      <c r="L127" t="s">
+        <v>92</v>
+      </c>
+      <c r="M127" t="s">
+        <v>151</v>
+      </c>
+      <c r="N127" t="s">
+        <v>3</v>
+      </c>
+      <c r="P127" t="s">
+        <v>4</v>
+      </c>
+      <c r="R127" t="s">
+        <v>16</v>
+      </c>
+      <c r="S127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19">
+      <c r="A128" t="s">
+        <v>314</v>
+      </c>
+      <c r="C128" t="s">
+        <v>295</v>
+      </c>
+      <c r="D128" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" t="s">
+        <v>133</v>
+      </c>
+      <c r="F128" t="s">
+        <v>52</v>
+      </c>
+      <c r="G128" t="s">
+        <v>57</v>
+      </c>
+      <c r="H128" t="s">
+        <v>58</v>
+      </c>
+      <c r="J128" t="s">
+        <v>315</v>
+      </c>
+      <c r="K128" t="s">
+        <v>13</v>
+      </c>
+      <c r="L128" t="s">
+        <v>144</v>
+      </c>
+      <c r="M128" t="s">
+        <v>63</v>
+      </c>
+      <c r="N128" t="s">
+        <v>147</v>
+      </c>
+      <c r="P128" t="s">
+        <v>4</v>
+      </c>
+      <c r="R128" t="s">
+        <v>16</v>
+      </c>
+      <c r="S128" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
+      <c r="A129" t="s">
+        <v>61</v>
+      </c>
+      <c r="C129" t="s">
+        <v>295</v>
+      </c>
+      <c r="E129" t="s">
+        <v>57</v>
+      </c>
+      <c r="F129" t="s">
+        <v>133</v>
+      </c>
+      <c r="G129" t="s">
+        <v>9</v>
+      </c>
+      <c r="J129" t="s">
+        <v>62</v>
+      </c>
+      <c r="K129" t="s">
+        <v>63</v>
+      </c>
+      <c r="L129" t="s">
+        <v>63</v>
+      </c>
+      <c r="M129" t="s">
+        <v>63</v>
+      </c>
+      <c r="N129" t="s">
+        <v>3</v>
+      </c>
+      <c r="P129" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>316</v>
+      </c>
+      <c r="R129" t="s">
+        <v>16</v>
+      </c>
+      <c r="S129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
+      <c r="A130" t="s">
+        <v>317</v>
+      </c>
+      <c r="C130" t="s">
+        <v>295</v>
+      </c>
+      <c r="D130" t="s">
+        <v>133</v>
+      </c>
+      <c r="J130" t="s">
+        <v>200</v>
+      </c>
+      <c r="K130" t="s">
+        <v>14</v>
+      </c>
+      <c r="L130" t="s">
+        <v>173</v>
+      </c>
+      <c r="M130" t="s">
+        <v>106</v>
+      </c>
+      <c r="N130" t="s">
+        <v>3</v>
+      </c>
+      <c r="P130" t="s">
+        <v>30</v>
+      </c>
+      <c r="R130" t="s">
+        <v>16</v>
+      </c>
+      <c r="S130" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19">
+      <c r="A131" t="s">
+        <v>162</v>
+      </c>
+      <c r="C131" t="s">
+        <v>295</v>
+      </c>
+      <c r="D131" t="s">
+        <v>58</v>
+      </c>
+      <c r="E131" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" t="s">
+        <v>133</v>
+      </c>
+      <c r="G131" t="s">
+        <v>57</v>
+      </c>
+      <c r="H131" t="s">
+        <v>52</v>
+      </c>
+      <c r="J131" t="s">
+        <v>164</v>
+      </c>
+      <c r="K131" t="s">
+        <v>13</v>
+      </c>
+      <c r="L131" t="s">
+        <v>13</v>
+      </c>
+      <c r="M131" t="s">
+        <v>12</v>
+      </c>
+      <c r="N131" t="s">
+        <v>3</v>
+      </c>
+      <c r="P131" t="s">
+        <v>30</v>
+      </c>
+      <c r="R131" t="s">
+        <v>16</v>
+      </c>
+      <c r="S131" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19">
+      <c r="A132" t="s">
+        <v>165</v>
+      </c>
+      <c r="C132" t="s">
+        <v>295</v>
+      </c>
+      <c r="D132" t="s">
+        <v>58</v>
+      </c>
+      <c r="E132" t="s">
+        <v>57</v>
+      </c>
+      <c r="F132" t="s">
+        <v>133</v>
+      </c>
+      <c r="J132" t="s">
+        <v>166</v>
+      </c>
+      <c r="K132" t="s">
+        <v>63</v>
+      </c>
+      <c r="L132" t="s">
+        <v>82</v>
+      </c>
+      <c r="M132" t="s">
+        <v>93</v>
+      </c>
+      <c r="N132" t="s">
+        <v>3</v>
+      </c>
+      <c r="P132" t="s">
+        <v>4</v>
+      </c>
+      <c r="R132" t="s">
+        <v>16</v>
+      </c>
+      <c r="S132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
+      <c r="A133" t="s">
+        <v>167</v>
+      </c>
+      <c r="C133" t="s">
+        <v>295</v>
+      </c>
+      <c r="D133" t="s">
+        <v>133</v>
+      </c>
+      <c r="E133" t="s">
+        <v>58</v>
+      </c>
+      <c r="J133" t="s">
+        <v>168</v>
+      </c>
+      <c r="K133" t="s">
+        <v>41</v>
+      </c>
+      <c r="L133" t="s">
+        <v>144</v>
+      </c>
+      <c r="M133" t="s">
+        <v>169</v>
+      </c>
+      <c r="N133" t="s">
+        <v>3</v>
+      </c>
+      <c r="P133" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>318</v>
+      </c>
+      <c r="R133" t="s">
+        <v>16</v>
+      </c>
+      <c r="S133" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19">
+      <c r="A134" t="s">
+        <v>171</v>
+      </c>
+      <c r="C134" t="s">
+        <v>295</v>
+      </c>
+      <c r="D134" t="s">
+        <v>133</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" t="s">
+        <v>58</v>
+      </c>
+      <c r="G134" t="s">
+        <v>57</v>
+      </c>
+      <c r="H134" t="s">
+        <v>52</v>
+      </c>
+      <c r="J134" t="s">
+        <v>172</v>
+      </c>
+      <c r="K134" t="s">
+        <v>63</v>
+      </c>
+      <c r="L134" t="s">
+        <v>173</v>
+      </c>
+      <c r="M134" t="s">
+        <v>82</v>
+      </c>
+      <c r="N134" t="s">
+        <v>3</v>
+      </c>
+      <c r="P134" t="s">
+        <v>30</v>
+      </c>
+      <c r="R134" t="s">
+        <v>16</v>
+      </c>
+      <c r="S134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
+      <c r="A135" t="s">
+        <v>319</v>
+      </c>
+      <c r="C135" t="s">
+        <v>295</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" t="s">
+        <v>58</v>
+      </c>
+      <c r="F135" t="s">
+        <v>133</v>
+      </c>
+      <c r="G135" t="s">
+        <v>57</v>
+      </c>
+      <c r="H135" t="s">
+        <v>52</v>
+      </c>
+      <c r="J135" t="s">
+        <v>320</v>
+      </c>
+      <c r="K135" t="s">
+        <v>12</v>
+      </c>
+      <c r="L135" t="s">
+        <v>82</v>
+      </c>
+      <c r="M135" t="s">
+        <v>321</v>
+      </c>
+      <c r="N135" t="s">
+        <v>3</v>
+      </c>
+      <c r="P135" t="s">
+        <v>4</v>
+      </c>
+      <c r="R135" t="s">
+        <v>16</v>
+      </c>
+      <c r="S135" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19">
+      <c r="A136" t="s">
+        <v>174</v>
+      </c>
+      <c r="C136" t="s">
+        <v>295</v>
+      </c>
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" t="s">
+        <v>133</v>
+      </c>
+      <c r="J136" t="s">
+        <v>175</v>
+      </c>
+      <c r="K136" t="s">
+        <v>12</v>
+      </c>
+      <c r="L136" t="s">
+        <v>3</v>
+      </c>
+      <c r="M136" t="s">
+        <v>82</v>
+      </c>
+      <c r="N136" t="s">
+        <v>3</v>
+      </c>
+      <c r="P136" t="s">
+        <v>4</v>
+      </c>
+      <c r="R136" t="s">
+        <v>16</v>
+      </c>
+      <c r="S136" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19">
+      <c r="A137" t="s">
+        <v>322</v>
+      </c>
+      <c r="C137" t="s">
+        <v>295</v>
+      </c>
+      <c r="D137" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" t="s">
+        <v>57</v>
+      </c>
+      <c r="F137" t="s">
+        <v>58</v>
+      </c>
+      <c r="G137" t="s">
+        <v>133</v>
+      </c>
+      <c r="H137" t="s">
+        <v>10</v>
+      </c>
+      <c r="J137" t="s">
+        <v>113</v>
+      </c>
+      <c r="K137" t="s">
+        <v>12</v>
+      </c>
+      <c r="L137" t="s">
+        <v>12</v>
+      </c>
+      <c r="M137" t="s">
+        <v>3</v>
+      </c>
+      <c r="N137" t="s">
+        <v>3</v>
+      </c>
+      <c r="P137" t="s">
+        <v>4</v>
+      </c>
+      <c r="R137" t="s">
+        <v>16</v>
+      </c>
+      <c r="S137" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19">
+      <c r="A138" t="s">
+        <v>38</v>
+      </c>
+      <c r="C138" t="s">
+        <v>295</v>
+      </c>
+      <c r="E138" t="s">
+        <v>57</v>
+      </c>
+      <c r="F138" t="s">
+        <v>133</v>
+      </c>
+      <c r="G138" t="s">
+        <v>9</v>
+      </c>
+      <c r="H138" t="s">
+        <v>58</v>
+      </c>
+      <c r="J138" t="s">
+        <v>41</v>
+      </c>
+      <c r="K138" t="s">
+        <v>41</v>
+      </c>
+      <c r="L138" t="s">
+        <v>3</v>
+      </c>
+      <c r="M138" t="s">
+        <v>3</v>
+      </c>
+      <c r="N138" t="s">
+        <v>3</v>
+      </c>
+      <c r="P138" t="s">
+        <v>4</v>
+      </c>
+      <c r="R138" t="s">
+        <v>16</v>
+      </c>
+      <c r="S138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19">
+      <c r="A139" t="s">
+        <v>323</v>
+      </c>
+      <c r="C139" t="s">
+        <v>295</v>
+      </c>
+      <c r="D139" t="s">
+        <v>58</v>
+      </c>
+      <c r="E139" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" t="s">
+        <v>57</v>
+      </c>
+      <c r="G139" t="s">
+        <v>9</v>
+      </c>
+      <c r="H139" t="s">
+        <v>133</v>
+      </c>
+      <c r="J139" t="s">
+        <v>3</v>
+      </c>
+      <c r="K139" t="s">
+        <v>3</v>
+      </c>
+      <c r="L139" t="s">
+        <v>3</v>
+      </c>
+      <c r="M139" t="s">
+        <v>3</v>
+      </c>
+      <c r="N139" t="s">
+        <v>3</v>
+      </c>
+      <c r="P139" t="s">
+        <v>30</v>
+      </c>
+      <c r="R139" t="s">
+        <v>16</v>
+      </c>
+      <c r="S139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19">
+      <c r="A140" t="s">
+        <v>324</v>
+      </c>
+      <c r="C140" t="s">
+        <v>295</v>
+      </c>
+      <c r="D140" t="s">
+        <v>58</v>
+      </c>
+      <c r="E140" t="s">
+        <v>133</v>
+      </c>
+      <c r="F140" t="s">
+        <v>57</v>
+      </c>
+      <c r="G140" t="s">
+        <v>9</v>
+      </c>
+      <c r="J140" t="s">
+        <v>3</v>
+      </c>
+      <c r="K140" t="s">
+        <v>3</v>
+      </c>
+      <c r="L140" t="s">
+        <v>3</v>
+      </c>
+      <c r="M140" t="s">
+        <v>3</v>
+      </c>
+      <c r="N140" t="s">
+        <v>3</v>
+      </c>
+      <c r="P140" t="s">
+        <v>4</v>
+      </c>
+      <c r="R140" t="s">
+        <v>16</v>
+      </c>
+      <c r="S140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19">
+      <c r="A141" t="s">
+        <v>184</v>
+      </c>
+      <c r="C141" t="s">
+        <v>295</v>
+      </c>
+      <c r="D141" t="s">
+        <v>52</v>
+      </c>
+      <c r="J141" t="s">
+        <v>185</v>
+      </c>
+      <c r="K141" t="s">
+        <v>104</v>
+      </c>
+      <c r="L141" t="s">
+        <v>119</v>
+      </c>
+      <c r="M141" t="s">
+        <v>186</v>
+      </c>
+      <c r="N141" t="s">
+        <v>187</v>
+      </c>
+      <c r="P141" t="s">
+        <v>30</v>
+      </c>
+      <c r="R141" t="s">
+        <v>16</v>
+      </c>
+      <c r="S141" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19">
+      <c r="A142" t="s">
+        <v>188</v>
+      </c>
+      <c r="C142" t="s">
+        <v>295</v>
+      </c>
+      <c r="E142" t="s">
+        <v>57</v>
+      </c>
+      <c r="G142" t="s">
+        <v>58</v>
+      </c>
+      <c r="H142" t="s">
+        <v>52</v>
+      </c>
+      <c r="J142" t="s">
+        <v>189</v>
+      </c>
+      <c r="K142" t="s">
+        <v>13</v>
+      </c>
+      <c r="L142" t="s">
+        <v>55</v>
+      </c>
+      <c r="M142" t="s">
+        <v>151</v>
+      </c>
+      <c r="N142" t="s">
+        <v>3</v>
+      </c>
+      <c r="P142" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>325</v>
+      </c>
+      <c r="R142" t="s">
+        <v>16</v>
+      </c>
+      <c r="S142" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19">
+      <c r="A143" t="s">
+        <v>191</v>
+      </c>
+      <c r="C143" t="s">
+        <v>295</v>
+      </c>
+      <c r="D143" t="s">
+        <v>52</v>
+      </c>
+      <c r="E143" t="s">
+        <v>57</v>
+      </c>
+      <c r="F143" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" t="s">
+        <v>58</v>
+      </c>
+      <c r="J143" t="s">
+        <v>99</v>
+      </c>
+      <c r="K143" t="s">
+        <v>54</v>
+      </c>
+      <c r="L143" t="s">
+        <v>144</v>
+      </c>
+      <c r="M143" t="s">
+        <v>55</v>
+      </c>
+      <c r="N143" t="s">
+        <v>3</v>
+      </c>
+      <c r="P143" t="s">
+        <v>4</v>
+      </c>
+      <c r="R143" t="s">
+        <v>16</v>
+      </c>
+      <c r="S143" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19">
+      <c r="A144" t="s">
+        <v>192</v>
+      </c>
+      <c r="C144" t="s">
+        <v>295</v>
+      </c>
+      <c r="D144" t="s">
+        <v>58</v>
+      </c>
+      <c r="F144" t="s">
+        <v>52</v>
+      </c>
+      <c r="G144" t="s">
+        <v>10</v>
+      </c>
+      <c r="H144" t="s">
+        <v>9</v>
+      </c>
+      <c r="J144" t="s">
+        <v>158</v>
+      </c>
+      <c r="K144" t="s">
+        <v>13</v>
+      </c>
+      <c r="L144" t="s">
+        <v>173</v>
+      </c>
+      <c r="M144" t="s">
+        <v>60</v>
+      </c>
+      <c r="N144" t="s">
+        <v>3</v>
+      </c>
+      <c r="P144" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>326</v>
+      </c>
+      <c r="R144" t="s">
+        <v>16</v>
+      </c>
+      <c r="S144" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19">
+      <c r="A145" t="s">
+        <v>194</v>
+      </c>
+      <c r="C145" t="s">
+        <v>295</v>
+      </c>
+      <c r="D145" t="s">
+        <v>52</v>
+      </c>
+      <c r="E145" t="s">
+        <v>57</v>
+      </c>
+      <c r="F145" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" t="s">
+        <v>58</v>
+      </c>
+      <c r="J145" t="s">
+        <v>195</v>
+      </c>
+      <c r="K145" t="s">
+        <v>63</v>
+      </c>
+      <c r="L145" t="s">
+        <v>63</v>
+      </c>
+      <c r="M145" t="s">
+        <v>151</v>
+      </c>
+      <c r="N145" t="s">
+        <v>3</v>
+      </c>
+      <c r="P145" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>327</v>
+      </c>
+      <c r="R145" t="s">
+        <v>16</v>
+      </c>
+      <c r="S145" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19">
+      <c r="A146" t="s">
+        <v>197</v>
+      </c>
+      <c r="C146" t="s">
+        <v>295</v>
+      </c>
+      <c r="D146" t="s">
+        <v>52</v>
+      </c>
+      <c r="E146" t="s">
+        <v>57</v>
+      </c>
+      <c r="F146" t="s">
+        <v>58</v>
+      </c>
+      <c r="G146" t="s">
+        <v>9</v>
+      </c>
+      <c r="J146" t="s">
+        <v>198</v>
+      </c>
+      <c r="K146" t="s">
+        <v>135</v>
+      </c>
+      <c r="L146" t="s">
+        <v>173</v>
+      </c>
+      <c r="M146" t="s">
+        <v>69</v>
+      </c>
+      <c r="N146" t="s">
+        <v>3</v>
+      </c>
+      <c r="P146" t="s">
+        <v>4</v>
+      </c>
+      <c r="R146" t="s">
+        <v>16</v>
+      </c>
+      <c r="S146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19">
+      <c r="A147" t="s">
+        <v>70</v>
+      </c>
+      <c r="C147" t="s">
+        <v>295</v>
+      </c>
+      <c r="D147" t="s">
+        <v>52</v>
+      </c>
+      <c r="E147" t="s">
+        <v>58</v>
+      </c>
+      <c r="G147" t="s">
+        <v>57</v>
+      </c>
+      <c r="J147" t="s">
+        <v>72</v>
+      </c>
+      <c r="K147" t="s">
+        <v>63</v>
+      </c>
+      <c r="L147" t="s">
+        <v>13</v>
+      </c>
+      <c r="M147" t="s">
+        <v>73</v>
+      </c>
+      <c r="N147" t="s">
+        <v>3</v>
+      </c>
+      <c r="P147" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>328</v>
+      </c>
+      <c r="R147" t="s">
+        <v>16</v>
+      </c>
+      <c r="S147" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19">
+      <c r="A148" t="s">
+        <v>203</v>
+      </c>
+      <c r="C148" t="s">
+        <v>295</v>
+      </c>
+      <c r="D148" t="s">
+        <v>52</v>
+      </c>
+      <c r="J148" t="s">
+        <v>204</v>
+      </c>
+      <c r="K148" t="s">
+        <v>135</v>
+      </c>
+      <c r="L148" t="s">
+        <v>68</v>
+      </c>
+      <c r="M148" t="s">
+        <v>73</v>
+      </c>
+      <c r="N148" t="s">
+        <v>3</v>
+      </c>
+      <c r="P148" t="s">
+        <v>30</v>
+      </c>
+      <c r="R148" t="s">
+        <v>16</v>
+      </c>
+      <c r="S148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19">
+      <c r="A149" t="s">
+        <v>65</v>
+      </c>
+      <c r="C149" t="s">
+        <v>295</v>
+      </c>
+      <c r="D149" t="s">
+        <v>52</v>
+      </c>
+      <c r="F149" t="s">
+        <v>57</v>
+      </c>
+      <c r="G149" t="s">
+        <v>58</v>
+      </c>
+      <c r="J149" t="s">
+        <v>67</v>
+      </c>
+      <c r="K149" t="s">
+        <v>14</v>
+      </c>
+      <c r="L149" t="s">
+        <v>68</v>
+      </c>
+      <c r="M149" t="s">
+        <v>69</v>
+      </c>
+      <c r="N149" t="s">
+        <v>3</v>
+      </c>
+      <c r="P149" t="s">
+        <v>4</v>
+      </c>
+      <c r="R149" t="s">
+        <v>16</v>
+      </c>
+      <c r="S149" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19">
+      <c r="A150" t="s">
+        <v>329</v>
+      </c>
+      <c r="C150" t="s">
+        <v>295</v>
+      </c>
+      <c r="D150" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" t="s">
+        <v>58</v>
+      </c>
+      <c r="F150" t="s">
+        <v>52</v>
+      </c>
+      <c r="J150" t="s">
+        <v>93</v>
+      </c>
+      <c r="K150" t="s">
+        <v>3</v>
+      </c>
+      <c r="L150" t="s">
+        <v>3</v>
+      </c>
+      <c r="M150" t="s">
+        <v>93</v>
+      </c>
+      <c r="N150" t="s">
+        <v>3</v>
+      </c>
+      <c r="P150" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>330</v>
+      </c>
+      <c r="R150" t="s">
+        <v>16</v>
+      </c>
+      <c r="S150" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19">
+      <c r="A151" t="s">
+        <v>331</v>
+      </c>
+      <c r="C151" t="s">
+        <v>295</v>
+      </c>
+      <c r="E151" t="s">
+        <v>58</v>
+      </c>
+      <c r="F151" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" t="s">
+        <v>52</v>
+      </c>
+      <c r="H151" t="s">
+        <v>57</v>
+      </c>
+      <c r="J151" t="s">
+        <v>147</v>
+      </c>
+      <c r="K151" t="s">
+        <v>3</v>
+      </c>
+      <c r="L151" t="s">
+        <v>3</v>
+      </c>
+      <c r="M151" t="s">
+        <v>3</v>
+      </c>
+      <c r="N151" t="s">
+        <v>147</v>
+      </c>
+      <c r="P151" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>299</v>
+      </c>
+      <c r="R151" t="s">
+        <v>16</v>
+      </c>
+      <c r="S151" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19">
+      <c r="A152" t="s">
+        <v>332</v>
+      </c>
+      <c r="C152" t="s">
+        <v>295</v>
+      </c>
+      <c r="D152" t="s">
+        <v>52</v>
+      </c>
+      <c r="J152" t="s">
+        <v>147</v>
+      </c>
+      <c r="K152" t="s">
+        <v>3</v>
+      </c>
+      <c r="L152" t="s">
+        <v>3</v>
+      </c>
+      <c r="M152" t="s">
+        <v>3</v>
+      </c>
+      <c r="N152" t="s">
+        <v>147</v>
+      </c>
+      <c r="P152" t="s">
+        <v>30</v>
+      </c>
+      <c r="R152" t="s">
+        <v>16</v>
+      </c>
+      <c r="S152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19">
+      <c r="A153" t="s">
+        <v>333</v>
+      </c>
+      <c r="C153" t="s">
+        <v>295</v>
+      </c>
+      <c r="D153" t="s">
+        <v>58</v>
+      </c>
+      <c r="E153" t="s">
+        <v>52</v>
+      </c>
+      <c r="G153" t="s">
+        <v>57</v>
+      </c>
+      <c r="J153" t="s">
+        <v>3</v>
+      </c>
+      <c r="K153" t="s">
+        <v>3</v>
+      </c>
+      <c r="L153" t="s">
+        <v>3</v>
+      </c>
+      <c r="M153" t="s">
+        <v>3</v>
+      </c>
+      <c r="N153" t="s">
+        <v>3</v>
+      </c>
+      <c r="P153" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>334</v>
+      </c>
+      <c r="R153" t="s">
+        <v>16</v>
+      </c>
+      <c r="S153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19">
+      <c r="A154" t="s">
+        <v>335</v>
+      </c>
+      <c r="C154" t="s">
+        <v>295</v>
+      </c>
+      <c r="D154" t="s">
+        <v>58</v>
+      </c>
+      <c r="E154" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" t="s">
+        <v>52</v>
+      </c>
+      <c r="J154" t="s">
+        <v>3</v>
+      </c>
+      <c r="K154" t="s">
+        <v>3</v>
+      </c>
+      <c r="L154" t="s">
+        <v>3</v>
+      </c>
+      <c r="M154" t="s">
+        <v>3</v>
+      </c>
+      <c r="N154" t="s">
+        <v>3</v>
+      </c>
+      <c r="P154" t="s">
+        <v>30</v>
+      </c>
+      <c r="R154" t="s">
+        <v>16</v>
+      </c>
+      <c r="S154" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19">
+      <c r="A155" t="s">
+        <v>336</v>
+      </c>
+      <c r="C155" t="s">
+        <v>295</v>
+      </c>
+      <c r="D155" t="s">
+        <v>52</v>
+      </c>
+      <c r="E155" t="s">
+        <v>58</v>
+      </c>
+      <c r="J155" t="s">
+        <v>3</v>
+      </c>
+      <c r="K155" t="s">
+        <v>3</v>
+      </c>
+      <c r="L155" t="s">
+        <v>3</v>
+      </c>
+      <c r="M155" t="s">
+        <v>3</v>
+      </c>
+      <c r="N155" t="s">
+        <v>3</v>
+      </c>
+      <c r="P155" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>337</v>
+      </c>
+      <c r="R155" t="s">
+        <v>16</v>
+      </c>
+      <c r="S155" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19">
+      <c r="A156" t="s">
+        <v>338</v>
+      </c>
+      <c r="C156" t="s">
+        <v>295</v>
+      </c>
+      <c r="D156" t="s">
+        <v>52</v>
+      </c>
+      <c r="J156" t="s">
+        <v>3</v>
+      </c>
+      <c r="K156" t="s">
+        <v>3</v>
+      </c>
+      <c r="L156" t="s">
+        <v>3</v>
+      </c>
+      <c r="M156" t="s">
+        <v>3</v>
+      </c>
+      <c r="N156" t="s">
+        <v>3</v>
+      </c>
+      <c r="P156" t="s">
+        <v>4</v>
+      </c>
+      <c r="R156" t="s">
+        <v>16</v>
+      </c>
+      <c r="S156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19">
+      <c r="A157" t="s">
+        <v>339</v>
+      </c>
+      <c r="C157" t="s">
+        <v>295</v>
+      </c>
+      <c r="E157" t="s">
+        <v>57</v>
+      </c>
+      <c r="H157" t="s">
+        <v>9</v>
+      </c>
+      <c r="J157" t="s">
+        <v>122</v>
+      </c>
+      <c r="K157" t="s">
+        <v>22</v>
+      </c>
+      <c r="L157" t="s">
+        <v>13</v>
+      </c>
+      <c r="M157" t="s">
+        <v>140</v>
+      </c>
+      <c r="N157" t="s">
+        <v>147</v>
+      </c>
+      <c r="P157" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>340</v>
+      </c>
+      <c r="R157" t="s">
+        <v>16</v>
+      </c>
+      <c r="S157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19">
+      <c r="A158" t="s">
+        <v>205</v>
+      </c>
+      <c r="C158" t="s">
+        <v>295</v>
+      </c>
+      <c r="D158" t="s">
+        <v>57</v>
+      </c>
+      <c r="J158" t="s">
+        <v>143</v>
+      </c>
+      <c r="K158" t="s">
+        <v>54</v>
+      </c>
+      <c r="L158" t="s">
+        <v>55</v>
+      </c>
+      <c r="M158" t="s">
+        <v>13</v>
+      </c>
+      <c r="N158" t="s">
+        <v>3</v>
+      </c>
+      <c r="P158" t="s">
+        <v>4</v>
+      </c>
+      <c r="R158" t="s">
+        <v>16</v>
+      </c>
+      <c r="S158" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19">
+      <c r="A159" t="s">
+        <v>207</v>
+      </c>
+      <c r="C159" t="s">
+        <v>295</v>
+      </c>
+      <c r="F159" t="s">
+        <v>57</v>
+      </c>
+      <c r="H159" t="s">
+        <v>9</v>
+      </c>
+      <c r="J159" t="s">
+        <v>208</v>
+      </c>
+      <c r="K159" t="s">
+        <v>24</v>
+      </c>
+      <c r="L159" t="s">
+        <v>92</v>
+      </c>
+      <c r="M159" t="s">
+        <v>78</v>
+      </c>
+      <c r="N159" t="s">
+        <v>3</v>
+      </c>
+      <c r="P159" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>341</v>
+      </c>
+      <c r="R159" t="s">
+        <v>16</v>
+      </c>
+      <c r="S159" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19">
+      <c r="A160" t="s">
+        <v>342</v>
+      </c>
+      <c r="C160" t="s">
+        <v>295</v>
+      </c>
+      <c r="E160" t="s">
+        <v>57</v>
+      </c>
+      <c r="J160" t="s">
+        <v>208</v>
+      </c>
+      <c r="K160" t="s">
+        <v>22</v>
+      </c>
+      <c r="L160" t="s">
+        <v>54</v>
+      </c>
+      <c r="M160" t="s">
+        <v>201</v>
+      </c>
+      <c r="N160" t="s">
+        <v>3</v>
+      </c>
+      <c r="P160" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>343</v>
+      </c>
+      <c r="R160" t="s">
+        <v>16</v>
+      </c>
+      <c r="S160" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19">
+      <c r="A161" t="s">
+        <v>210</v>
+      </c>
+      <c r="C161" t="s">
+        <v>295</v>
+      </c>
+      <c r="D161" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" t="s">
+        <v>57</v>
+      </c>
+      <c r="J161" t="s">
+        <v>208</v>
+      </c>
+      <c r="K161" t="s">
+        <v>54</v>
+      </c>
+      <c r="L161" t="s">
+        <v>144</v>
+      </c>
+      <c r="M161" t="s">
+        <v>151</v>
+      </c>
+      <c r="N161" t="s">
+        <v>147</v>
+      </c>
+      <c r="P161" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>344</v>
+      </c>
+      <c r="R161" t="s">
+        <v>16</v>
+      </c>
+      <c r="S161" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19">
+      <c r="A162" t="s">
+        <v>345</v>
+      </c>
+      <c r="C162" t="s">
+        <v>295</v>
+      </c>
+      <c r="D162" t="s">
+        <v>58</v>
+      </c>
+      <c r="E162" t="s">
+        <v>57</v>
+      </c>
+      <c r="J162" t="s">
+        <v>346</v>
+      </c>
+      <c r="K162" t="s">
+        <v>54</v>
+      </c>
+      <c r="L162" t="s">
+        <v>92</v>
+      </c>
+      <c r="M162" t="s">
+        <v>249</v>
+      </c>
+      <c r="N162" t="s">
+        <v>3</v>
+      </c>
+      <c r="P162" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>347</v>
+      </c>
+      <c r="R162" t="s">
+        <v>16</v>
+      </c>
+      <c r="S162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19">
+      <c r="A163" t="s">
+        <v>213</v>
+      </c>
+      <c r="C163" t="s">
+        <v>295</v>
+      </c>
+      <c r="H163" t="s">
+        <v>57</v>
+      </c>
+      <c r="J163" t="s">
+        <v>91</v>
+      </c>
+      <c r="K163" t="s">
+        <v>60</v>
+      </c>
+      <c r="L163" t="s">
+        <v>82</v>
+      </c>
+      <c r="M163" t="s">
+        <v>151</v>
+      </c>
+      <c r="N163" t="s">
+        <v>3</v>
+      </c>
+      <c r="P163" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>348</v>
+      </c>
+      <c r="R163" t="s">
+        <v>16</v>
+      </c>
+      <c r="S163" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19">
+      <c r="A164" t="s">
+        <v>215</v>
+      </c>
+      <c r="C164" t="s">
+        <v>295</v>
+      </c>
+      <c r="F164" t="s">
+        <v>57</v>
+      </c>
+      <c r="J164" t="s">
+        <v>91</v>
+      </c>
+      <c r="K164" t="s">
+        <v>13</v>
+      </c>
+      <c r="L164" t="s">
+        <v>144</v>
+      </c>
+      <c r="M164" t="s">
+        <v>201</v>
+      </c>
+      <c r="N164" t="s">
+        <v>155</v>
+      </c>
+      <c r="P164" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>349</v>
+      </c>
+      <c r="R164" t="s">
+        <v>16</v>
+      </c>
+      <c r="S164" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19">
+      <c r="A165" t="s">
+        <v>217</v>
+      </c>
+      <c r="C165" t="s">
+        <v>295</v>
+      </c>
+      <c r="D165" t="s">
+        <v>57</v>
+      </c>
+      <c r="J165" t="s">
+        <v>161</v>
+      </c>
+      <c r="K165" t="s">
+        <v>135</v>
+      </c>
+      <c r="L165" t="s">
+        <v>173</v>
+      </c>
+      <c r="M165" t="s">
+        <v>78</v>
+      </c>
+      <c r="N165" t="s">
+        <v>3</v>
+      </c>
+      <c r="P165" t="s">
+        <v>4</v>
+      </c>
+      <c r="R165" t="s">
+        <v>16</v>
+      </c>
+      <c r="S165" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19">
+      <c r="A166" t="s">
+        <v>350</v>
+      </c>
+      <c r="C166" t="s">
+        <v>295</v>
+      </c>
+      <c r="D166" t="s">
+        <v>57</v>
+      </c>
+      <c r="E166" t="s">
+        <v>58</v>
+      </c>
+      <c r="J166" t="s">
+        <v>198</v>
+      </c>
+      <c r="K166" t="s">
+        <v>135</v>
+      </c>
+      <c r="L166" t="s">
+        <v>82</v>
+      </c>
+      <c r="M166" t="s">
+        <v>93</v>
+      </c>
+      <c r="N166" t="s">
+        <v>3</v>
+      </c>
+      <c r="P166" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>351</v>
+      </c>
+      <c r="R166" t="s">
+        <v>16</v>
+      </c>
+      <c r="S166" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19">
+      <c r="A167" t="s">
+        <v>218</v>
+      </c>
+      <c r="C167" t="s">
+        <v>295</v>
+      </c>
+      <c r="D167" t="s">
+        <v>57</v>
+      </c>
+      <c r="J167" t="s">
+        <v>72</v>
+      </c>
+      <c r="K167" t="s">
+        <v>54</v>
+      </c>
+      <c r="L167" t="s">
+        <v>92</v>
+      </c>
+      <c r="M167" t="s">
+        <v>73</v>
+      </c>
+      <c r="N167" t="s">
+        <v>3</v>
+      </c>
+      <c r="P167" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>352</v>
+      </c>
+      <c r="R167" t="s">
+        <v>16</v>
+      </c>
+      <c r="S167" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19">
+      <c r="A168" t="s">
+        <v>79</v>
+      </c>
+      <c r="C168" t="s">
+        <v>295</v>
+      </c>
+      <c r="D168" t="s">
+        <v>9</v>
+      </c>
+      <c r="H168" t="s">
+        <v>57</v>
+      </c>
+      <c r="J168" t="s">
+        <v>81</v>
+      </c>
+      <c r="K168" t="s">
+        <v>13</v>
+      </c>
+      <c r="L168" t="s">
+        <v>63</v>
+      </c>
+      <c r="M168" t="s">
+        <v>82</v>
+      </c>
+      <c r="N168" t="s">
+        <v>3</v>
+      </c>
+      <c r="P168" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>353</v>
+      </c>
+      <c r="R168" t="s">
+        <v>16</v>
+      </c>
+      <c r="S168" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19">
+      <c r="A169" t="s">
+        <v>220</v>
+      </c>
+      <c r="C169" t="s">
+        <v>295</v>
+      </c>
+      <c r="H169" t="s">
+        <v>57</v>
+      </c>
+      <c r="J169" t="s">
+        <v>221</v>
+      </c>
+      <c r="K169" t="s">
+        <v>63</v>
+      </c>
+      <c r="L169" t="s">
+        <v>68</v>
+      </c>
+      <c r="M169" t="s">
+        <v>63</v>
+      </c>
+      <c r="N169" t="s">
+        <v>3</v>
+      </c>
+      <c r="P169" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>354</v>
+      </c>
+      <c r="R169" t="s">
+        <v>16</v>
+      </c>
+      <c r="S169" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19">
+      <c r="A170" t="s">
+        <v>223</v>
+      </c>
+      <c r="C170" t="s">
+        <v>295</v>
+      </c>
+      <c r="E170" t="s">
+        <v>57</v>
+      </c>
+      <c r="J170" t="s">
+        <v>224</v>
+      </c>
+      <c r="K170" t="s">
+        <v>54</v>
+      </c>
+      <c r="L170" t="s">
+        <v>154</v>
+      </c>
+      <c r="M170" t="s">
+        <v>68</v>
+      </c>
+      <c r="N170" t="s">
+        <v>3</v>
+      </c>
+      <c r="P170" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>355</v>
+      </c>
+      <c r="R170" t="s">
+        <v>16</v>
+      </c>
+      <c r="S170" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19">
+      <c r="A171" t="s">
+        <v>356</v>
+      </c>
+      <c r="C171" t="s">
+        <v>295</v>
+      </c>
+      <c r="E171" t="s">
+        <v>57</v>
+      </c>
+      <c r="H171" t="s">
+        <v>10</v>
+      </c>
+      <c r="J171" t="s">
+        <v>357</v>
+      </c>
+      <c r="K171" t="s">
+        <v>63</v>
+      </c>
+      <c r="L171" t="s">
+        <v>68</v>
+      </c>
+      <c r="M171" t="s">
+        <v>82</v>
+      </c>
+      <c r="N171" t="s">
+        <v>3</v>
+      </c>
+      <c r="P171" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>358</v>
+      </c>
+      <c r="R171" t="s">
+        <v>16</v>
+      </c>
+      <c r="S171" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19">
+      <c r="A172" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172" t="s">
+        <v>295</v>
+      </c>
+      <c r="E172" t="s">
+        <v>57</v>
+      </c>
+      <c r="F172" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172" t="s">
+        <v>10</v>
+      </c>
+      <c r="J172" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" t="s">
+        <v>12</v>
+      </c>
+      <c r="L172" t="s">
+        <v>13</v>
+      </c>
+      <c r="M172" t="s">
+        <v>14</v>
+      </c>
+      <c r="N172" t="s">
+        <v>3</v>
+      </c>
+      <c r="P172" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>355</v>
+      </c>
+      <c r="R172" t="s">
+        <v>16</v>
+      </c>
+      <c r="S172" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19">
+      <c r="A173" t="s">
+        <v>359</v>
+      </c>
+      <c r="C173" t="s">
+        <v>295</v>
+      </c>
+      <c r="D173" t="s">
+        <v>57</v>
+      </c>
+      <c r="F173" t="s">
+        <v>9</v>
+      </c>
+      <c r="J173" t="s">
+        <v>360</v>
+      </c>
+      <c r="K173" t="s">
+        <v>12</v>
+      </c>
+      <c r="L173" t="s">
+        <v>13</v>
+      </c>
+      <c r="M173" t="s">
+        <v>321</v>
+      </c>
+      <c r="N173" t="s">
+        <v>3</v>
+      </c>
+      <c r="P173" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>361</v>
+      </c>
+      <c r="R173" t="s">
+        <v>16</v>
+      </c>
+      <c r="S173" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19">
+      <c r="A174" t="s">
+        <v>225</v>
+      </c>
+      <c r="C174" t="s">
+        <v>295</v>
+      </c>
+      <c r="D174" t="s">
+        <v>58</v>
+      </c>
+      <c r="E174" t="s">
+        <v>9</v>
+      </c>
+      <c r="G174" t="s">
+        <v>57</v>
+      </c>
+      <c r="H174" t="s">
+        <v>10</v>
+      </c>
+      <c r="J174" t="s">
+        <v>226</v>
+      </c>
+      <c r="K174" t="s">
+        <v>41</v>
+      </c>
+      <c r="L174" t="s">
+        <v>12</v>
+      </c>
+      <c r="M174" t="s">
+        <v>14</v>
+      </c>
+      <c r="N174" t="s">
+        <v>3</v>
+      </c>
+      <c r="P174" t="s">
+        <v>4</v>
+      </c>
+      <c r="R174" t="s">
+        <v>16</v>
+      </c>
+      <c r="S174" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19">
+      <c r="A175" t="s">
+        <v>227</v>
+      </c>
+      <c r="C175" t="s">
+        <v>295</v>
+      </c>
+      <c r="D175" t="s">
+        <v>58</v>
+      </c>
+      <c r="E175" t="s">
+        <v>57</v>
+      </c>
+      <c r="J175" t="s">
+        <v>228</v>
+      </c>
+      <c r="K175" t="s">
+        <v>229</v>
+      </c>
+      <c r="L175" t="s">
+        <v>154</v>
+      </c>
+      <c r="M175" t="s">
+        <v>169</v>
+      </c>
+      <c r="N175" t="s">
+        <v>3</v>
+      </c>
+      <c r="P175" t="s">
+        <v>4</v>
+      </c>
+      <c r="R175" t="s">
+        <v>16</v>
+      </c>
+      <c r="S175" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19">
+      <c r="A176" t="s">
+        <v>230</v>
+      </c>
+      <c r="C176" t="s">
+        <v>295</v>
+      </c>
+      <c r="D176" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" t="s">
+        <v>57</v>
+      </c>
+      <c r="J176" t="s">
+        <v>232</v>
+      </c>
+      <c r="K176" t="s">
+        <v>229</v>
+      </c>
+      <c r="L176" t="s">
+        <v>154</v>
+      </c>
+      <c r="M176" t="s">
+        <v>41</v>
+      </c>
+      <c r="N176" t="s">
+        <v>3</v>
+      </c>
+      <c r="P176" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>362</v>
+      </c>
+      <c r="R176" t="s">
+        <v>16</v>
+      </c>
+      <c r="S176" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19">
+      <c r="A177" t="s">
+        <v>234</v>
+      </c>
+      <c r="C177" t="s">
+        <v>295</v>
+      </c>
+      <c r="E177" t="s">
+        <v>57</v>
+      </c>
+      <c r="J177" t="s">
+        <v>235</v>
+      </c>
+      <c r="K177" t="s">
+        <v>14</v>
+      </c>
+      <c r="L177" t="s">
+        <v>3</v>
+      </c>
+      <c r="M177" t="s">
+        <v>13</v>
+      </c>
+      <c r="N177" t="s">
+        <v>3</v>
+      </c>
+      <c r="P177" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>363</v>
+      </c>
+      <c r="R177" t="s">
+        <v>16</v>
+      </c>
+      <c r="S177" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19">
+      <c r="A178" t="s">
+        <v>75</v>
+      </c>
+      <c r="C178" t="s">
+        <v>295</v>
+      </c>
+      <c r="E178" t="s">
+        <v>57</v>
+      </c>
+      <c r="J178" t="s">
+        <v>77</v>
+      </c>
+      <c r="K178" t="s">
+        <v>14</v>
+      </c>
+      <c r="L178" t="s">
+        <v>3</v>
+      </c>
+      <c r="M178" t="s">
+        <v>78</v>
+      </c>
+      <c r="N178" t="s">
+        <v>3</v>
+      </c>
+      <c r="P178" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>355</v>
+      </c>
+      <c r="R178" t="s">
+        <v>16</v>
+      </c>
+      <c r="S178" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19">
+      <c r="A179" t="s">
+        <v>364</v>
+      </c>
+      <c r="C179" t="s">
+        <v>295</v>
+      </c>
+      <c r="E179" t="s">
+        <v>57</v>
+      </c>
+      <c r="J179" t="s">
+        <v>365</v>
+      </c>
+      <c r="K179" t="s">
+        <v>14</v>
+      </c>
+      <c r="L179" t="s">
+        <v>3</v>
+      </c>
+      <c r="M179" t="s">
+        <v>93</v>
+      </c>
+      <c r="N179" t="s">
+        <v>3</v>
+      </c>
+      <c r="P179" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>366</v>
+      </c>
+      <c r="R179" t="s">
+        <v>16</v>
+      </c>
+      <c r="S179" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19">
+      <c r="A180" t="s">
+        <v>367</v>
+      </c>
+      <c r="C180" t="s">
+        <v>295</v>
+      </c>
+      <c r="D180" t="s">
+        <v>57</v>
+      </c>
+      <c r="J180" t="s">
+        <v>368</v>
+      </c>
+      <c r="K180" t="s">
+        <v>12</v>
+      </c>
+      <c r="L180" t="s">
+        <v>3</v>
+      </c>
+      <c r="M180" t="s">
+        <v>69</v>
+      </c>
+      <c r="N180" t="s">
+        <v>3</v>
+      </c>
+      <c r="P180" t="s">
+        <v>4</v>
+      </c>
+      <c r="R180" t="s">
+        <v>16</v>
+      </c>
+      <c r="S180" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19">
+      <c r="A181" t="s">
+        <v>369</v>
+      </c>
+      <c r="C181" t="s">
+        <v>295</v>
+      </c>
+      <c r="D181" t="s">
+        <v>57</v>
+      </c>
+      <c r="F181" t="s">
+        <v>9</v>
+      </c>
+      <c r="G181" t="s">
+        <v>58</v>
+      </c>
+      <c r="J181" t="s">
+        <v>63</v>
+      </c>
+      <c r="K181" t="s">
+        <v>3</v>
+      </c>
+      <c r="L181" t="s">
+        <v>3</v>
+      </c>
+      <c r="M181" t="s">
+        <v>63</v>
+      </c>
+      <c r="N181" t="s">
+        <v>3</v>
+      </c>
+      <c r="P181" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>370</v>
+      </c>
+      <c r="R181" t="s">
+        <v>16</v>
+      </c>
+      <c r="S181" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19">
+      <c r="A182" t="s">
+        <v>371</v>
+      </c>
+      <c r="C182" t="s">
+        <v>295</v>
+      </c>
+      <c r="E182" t="s">
+        <v>57</v>
+      </c>
+      <c r="F182" t="s">
+        <v>9</v>
+      </c>
+      <c r="J182" t="s">
+        <v>14</v>
+      </c>
+      <c r="K182" t="s">
+        <v>3</v>
+      </c>
+      <c r="L182" t="s">
+        <v>3</v>
+      </c>
+      <c r="M182" t="s">
+        <v>14</v>
+      </c>
+      <c r="N182" t="s">
+        <v>3</v>
+      </c>
+      <c r="P182" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>372</v>
+      </c>
+      <c r="R182" t="s">
+        <v>16</v>
+      </c>
+      <c r="S182" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19">
+      <c r="A183" t="s">
+        <v>241</v>
+      </c>
+      <c r="C183" t="s">
+        <v>295</v>
+      </c>
+      <c r="E183" t="s">
+        <v>57</v>
+      </c>
+      <c r="J183" t="s">
+        <v>3</v>
+      </c>
+      <c r="K183" t="s">
+        <v>3</v>
+      </c>
+      <c r="L183" t="s">
+        <v>3</v>
+      </c>
+      <c r="M183" t="s">
+        <v>3</v>
+      </c>
+      <c r="N183" t="s">
+        <v>3</v>
+      </c>
+      <c r="P183" t="s">
+        <v>4</v>
+      </c>
+      <c r="R183" t="s">
+        <v>16</v>
+      </c>
+      <c r="S183" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19">
+      <c r="A184" t="s">
+        <v>84</v>
+      </c>
+      <c r="C184" t="s">
+        <v>295</v>
+      </c>
+      <c r="H184" t="s">
+        <v>57</v>
+      </c>
+      <c r="J184" t="s">
+        <v>3</v>
+      </c>
+      <c r="K184" t="s">
+        <v>3</v>
+      </c>
+      <c r="L184" t="s">
+        <v>3</v>
+      </c>
+      <c r="M184" t="s">
+        <v>3</v>
+      </c>
+      <c r="N184" t="s">
+        <v>3</v>
+      </c>
+      <c r="P184" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>373</v>
+      </c>
+      <c r="R184" t="s">
+        <v>16</v>
+      </c>
+      <c r="S184" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19">
+      <c r="A185" t="s">
+        <v>374</v>
+      </c>
+      <c r="C185" t="s">
+        <v>295</v>
+      </c>
+      <c r="E185" t="s">
+        <v>57</v>
+      </c>
+      <c r="J185" t="s">
+        <v>3</v>
+      </c>
+      <c r="K185" t="s">
+        <v>3</v>
+      </c>
+      <c r="L185" t="s">
+        <v>3</v>
+      </c>
+      <c r="M185" t="s">
+        <v>3</v>
+      </c>
+      <c r="N185" t="s">
+        <v>3</v>
+      </c>
+      <c r="P185" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>375</v>
+      </c>
+      <c r="R185" t="s">
+        <v>16</v>
+      </c>
+      <c r="S185" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19">
+      <c r="A186" t="s">
+        <v>376</v>
+      </c>
+      <c r="C186" t="s">
+        <v>295</v>
+      </c>
+      <c r="D186" t="s">
+        <v>58</v>
+      </c>
+      <c r="E186" t="s">
+        <v>57</v>
+      </c>
+      <c r="J186" t="s">
+        <v>3</v>
+      </c>
+      <c r="K186" t="s">
+        <v>3</v>
+      </c>
+      <c r="L186" t="s">
+        <v>3</v>
+      </c>
+      <c r="M186" t="s">
+        <v>3</v>
+      </c>
+      <c r="N186" t="s">
+        <v>3</v>
+      </c>
+      <c r="P186" t="s">
+        <v>30</v>
+      </c>
+      <c r="R186" t="s">
+        <v>16</v>
+      </c>
+      <c r="S186" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19">
+      <c r="A187" t="s">
+        <v>242</v>
+      </c>
+      <c r="C187" t="s">
+        <v>295</v>
+      </c>
+      <c r="D187" t="s">
+        <v>9</v>
+      </c>
+      <c r="J187" t="s">
+        <v>243</v>
+      </c>
+      <c r="K187" t="s">
+        <v>119</v>
+      </c>
+      <c r="L187" t="s">
+        <v>24</v>
+      </c>
+      <c r="M187" t="s">
+        <v>140</v>
+      </c>
+      <c r="N187" t="s">
+        <v>244</v>
+      </c>
+      <c r="P187" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>304</v>
+      </c>
+      <c r="R187" t="s">
+        <v>16</v>
+      </c>
+      <c r="S187" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19">
+      <c r="A188" t="s">
+        <v>245</v>
+      </c>
+      <c r="C188" t="s">
+        <v>295</v>
+      </c>
+      <c r="D188" t="s">
+        <v>58</v>
+      </c>
+      <c r="H188" t="s">
+        <v>9</v>
+      </c>
+      <c r="J188" t="s">
+        <v>189</v>
+      </c>
+      <c r="K188" t="s">
+        <v>130</v>
+      </c>
+      <c r="L188" t="s">
+        <v>55</v>
+      </c>
+      <c r="M188" t="s">
+        <v>69</v>
+      </c>
+      <c r="N188" t="s">
+        <v>3</v>
+      </c>
+      <c r="P188" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>377</v>
+      </c>
+      <c r="R188" t="s">
+        <v>16</v>
+      </c>
+      <c r="S188" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19">
+      <c r="A189" t="s">
+        <v>247</v>
+      </c>
+      <c r="C189" t="s">
+        <v>295</v>
+      </c>
+      <c r="D189" t="s">
+        <v>9</v>
+      </c>
+      <c r="J189" t="s">
+        <v>248</v>
+      </c>
+      <c r="K189" t="s">
+        <v>22</v>
+      </c>
+      <c r="L189" t="s">
+        <v>92</v>
+      </c>
+      <c r="M189" t="s">
+        <v>249</v>
+      </c>
+      <c r="N189" t="s">
+        <v>3</v>
+      </c>
+      <c r="P189" t="s">
+        <v>4</v>
+      </c>
+      <c r="R189" t="s">
+        <v>16</v>
+      </c>
+      <c r="S189" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19">
+      <c r="A190" t="s">
+        <v>250</v>
+      </c>
+      <c r="C190" t="s">
+        <v>295</v>
+      </c>
+      <c r="D190" t="s">
+        <v>58</v>
+      </c>
+      <c r="E190" t="s">
+        <v>9</v>
+      </c>
+      <c r="J190" t="s">
+        <v>161</v>
+      </c>
+      <c r="K190" t="s">
+        <v>135</v>
+      </c>
+      <c r="L190" t="s">
+        <v>92</v>
+      </c>
+      <c r="M190" t="s">
+        <v>69</v>
+      </c>
+      <c r="N190" t="s">
+        <v>3</v>
+      </c>
+      <c r="P190" t="s">
+        <v>4</v>
+      </c>
+      <c r="R190" t="s">
+        <v>16</v>
+      </c>
+      <c r="S190" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19">
+      <c r="A191" t="s">
+        <v>262</v>
+      </c>
+      <c r="C191" t="s">
+        <v>295</v>
+      </c>
+      <c r="D191" t="s">
+        <v>9</v>
+      </c>
+      <c r="J191" t="s">
+        <v>263</v>
+      </c>
+      <c r="K191" t="s">
+        <v>63</v>
+      </c>
+      <c r="L191" t="s">
+        <v>92</v>
+      </c>
+      <c r="M191" t="s">
+        <v>63</v>
+      </c>
+      <c r="N191" t="s">
+        <v>3</v>
+      </c>
+      <c r="P191" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>378</v>
+      </c>
+      <c r="R191" t="s">
+        <v>16</v>
+      </c>
+      <c r="S191" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19">
+      <c r="A192" t="s">
+        <v>251</v>
+      </c>
+      <c r="C192" t="s">
+        <v>295</v>
+      </c>
+      <c r="E192" t="s">
+        <v>9</v>
+      </c>
+      <c r="J192" t="s">
+        <v>81</v>
+      </c>
+      <c r="K192" t="s">
+        <v>22</v>
+      </c>
+      <c r="L192" t="s">
+        <v>68</v>
+      </c>
+      <c r="M192" t="s">
+        <v>73</v>
+      </c>
+      <c r="N192" t="s">
+        <v>3</v>
+      </c>
+      <c r="P192" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>379</v>
+      </c>
+      <c r="R192" t="s">
+        <v>16</v>
+      </c>
+      <c r="S192" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19">
+      <c r="A193" t="s">
+        <v>253</v>
+      </c>
+      <c r="C193" t="s">
+        <v>295</v>
+      </c>
+      <c r="H193" t="s">
+        <v>9</v>
+      </c>
+      <c r="J193" t="s">
+        <v>221</v>
+      </c>
+      <c r="K193" t="s">
+        <v>135</v>
+      </c>
+      <c r="L193" t="s">
+        <v>12</v>
+      </c>
+      <c r="M193" t="s">
+        <v>169</v>
+      </c>
+      <c r="N193" t="s">
+        <v>3</v>
+      </c>
+      <c r="P193" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>380</v>
+      </c>
+      <c r="R193" t="s">
+        <v>16</v>
+      </c>
+      <c r="S193" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19">
+      <c r="A194" t="s">
+        <v>255</v>
+      </c>
+      <c r="C194" t="s">
+        <v>295</v>
+      </c>
+      <c r="G194" t="s">
+        <v>9</v>
+      </c>
+      <c r="H194" t="s">
+        <v>58</v>
+      </c>
+      <c r="J194" t="s">
+        <v>256</v>
+      </c>
+      <c r="K194" t="s">
+        <v>13</v>
+      </c>
+      <c r="L194" t="s">
+        <v>12</v>
+      </c>
+      <c r="M194" t="s">
+        <v>201</v>
+      </c>
+      <c r="N194" t="s">
+        <v>3</v>
+      </c>
+      <c r="P194" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>381</v>
+      </c>
+      <c r="R194" t="s">
+        <v>16</v>
+      </c>
+      <c r="S194" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19">
+      <c r="A195" t="s">
+        <v>382</v>
+      </c>
+      <c r="C195" t="s">
+        <v>295</v>
+      </c>
+      <c r="D195" t="s">
+        <v>9</v>
+      </c>
+      <c r="J195" t="s">
+        <v>277</v>
+      </c>
+      <c r="K195" t="s">
+        <v>14</v>
+      </c>
+      <c r="L195" t="s">
+        <v>68</v>
+      </c>
+      <c r="M195" t="s">
+        <v>93</v>
+      </c>
+      <c r="N195" t="s">
+        <v>3</v>
+      </c>
+      <c r="P195" t="s">
+        <v>30</v>
+      </c>
+      <c r="R195" t="s">
+        <v>16</v>
+      </c>
+      <c r="S195" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19">
+      <c r="A196" t="s">
+        <v>383</v>
+      </c>
+      <c r="C196" t="s">
+        <v>295</v>
+      </c>
+      <c r="G196" t="s">
+        <v>9</v>
+      </c>
+      <c r="J196" t="s">
+        <v>368</v>
+      </c>
+      <c r="K196" t="s">
+        <v>12</v>
+      </c>
+      <c r="L196" t="s">
+        <v>3</v>
+      </c>
+      <c r="M196" t="s">
+        <v>69</v>
+      </c>
+      <c r="N196" t="s">
+        <v>3</v>
+      </c>
+      <c r="P196" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>384</v>
+      </c>
+      <c r="R196" t="s">
+        <v>16</v>
+      </c>
+      <c r="S196" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19">
+      <c r="A197" t="s">
+        <v>258</v>
+      </c>
+      <c r="C197" t="s">
+        <v>295</v>
+      </c>
+      <c r="E197" t="s">
+        <v>58</v>
+      </c>
+      <c r="F197" t="s">
+        <v>9</v>
+      </c>
+      <c r="J197" t="s">
+        <v>186</v>
+      </c>
+      <c r="K197" t="s">
+        <v>12</v>
+      </c>
+      <c r="L197" t="s">
+        <v>3</v>
+      </c>
+      <c r="M197" t="s">
+        <v>154</v>
+      </c>
+      <c r="N197" t="s">
+        <v>3</v>
+      </c>
+      <c r="P197" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>385</v>
+      </c>
+      <c r="R197" t="s">
+        <v>16</v>
+      </c>
+      <c r="S197" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19">
+      <c r="A198" t="s">
+        <v>386</v>
+      </c>
+      <c r="C198" t="s">
+        <v>295</v>
+      </c>
+      <c r="D198" t="s">
+        <v>9</v>
+      </c>
+      <c r="J198" t="s">
+        <v>3</v>
+      </c>
+      <c r="K198" t="s">
+        <v>3</v>
+      </c>
+      <c r="L198" t="s">
+        <v>3</v>
+      </c>
+      <c r="M198" t="s">
+        <v>3</v>
+      </c>
+      <c r="N198" t="s">
+        <v>3</v>
+      </c>
+      <c r="P198" t="s">
+        <v>4</v>
+      </c>
+      <c r="R198" t="s">
+        <v>16</v>
+      </c>
+      <c r="S198" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19">
+      <c r="A199" t="s">
+        <v>387</v>
+      </c>
+      <c r="C199" t="s">
+        <v>295</v>
+      </c>
+      <c r="D199" t="s">
+        <v>9</v>
+      </c>
+      <c r="J199" t="s">
+        <v>3</v>
+      </c>
+      <c r="K199" t="s">
+        <v>3</v>
+      </c>
+      <c r="L199" t="s">
+        <v>3</v>
+      </c>
+      <c r="M199" t="s">
+        <v>3</v>
+      </c>
+      <c r="N199" t="s">
+        <v>3</v>
+      </c>
+      <c r="P199" t="s">
+        <v>4</v>
+      </c>
+      <c r="R199" t="s">
+        <v>16</v>
+      </c>
+      <c r="S199" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19">
+      <c r="A200" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" t="s">
+        <v>295</v>
+      </c>
+      <c r="D200" t="s">
+        <v>9</v>
+      </c>
+      <c r="J200" t="s">
+        <v>3</v>
+      </c>
+      <c r="K200" t="s">
+        <v>3</v>
+      </c>
+      <c r="L200" t="s">
+        <v>3</v>
+      </c>
+      <c r="M200" t="s">
+        <v>3</v>
+      </c>
+      <c r="N200" t="s">
+        <v>3</v>
+      </c>
+      <c r="P200" t="s">
+        <v>4</v>
+      </c>
+      <c r="R200" t="s">
+        <v>16</v>
+      </c>
+      <c r="S200" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19">
+      <c r="A201" t="s">
+        <v>261</v>
+      </c>
+      <c r="C201" t="s">
+        <v>295</v>
+      </c>
+      <c r="D201" t="s">
+        <v>9</v>
+      </c>
+      <c r="J201" t="s">
+        <v>3</v>
+      </c>
+      <c r="K201" t="s">
+        <v>3</v>
+      </c>
+      <c r="L201" t="s">
+        <v>3</v>
+      </c>
+      <c r="M201" t="s">
+        <v>3</v>
+      </c>
+      <c r="N201" t="s">
+        <v>3</v>
+      </c>
+      <c r="P201" t="s">
+        <v>4</v>
+      </c>
+      <c r="R201" t="s">
+        <v>16</v>
+      </c>
+      <c r="S201" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19">
+      <c r="A202" t="s">
+        <v>388</v>
+      </c>
+      <c r="C202" t="s">
+        <v>295</v>
+      </c>
+      <c r="D202" t="s">
+        <v>9</v>
+      </c>
+      <c r="J202" t="s">
+        <v>3</v>
+      </c>
+      <c r="K202" t="s">
+        <v>3</v>
+      </c>
+      <c r="L202" t="s">
+        <v>3</v>
+      </c>
+      <c r="M202" t="s">
+        <v>3</v>
+      </c>
+      <c r="N202" t="s">
+        <v>3</v>
+      </c>
+      <c r="P202" t="s">
+        <v>4</v>
+      </c>
+      <c r="R202" t="s">
+        <v>16</v>
+      </c>
+      <c r="S202" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19">
+      <c r="A203" t="s">
+        <v>87</v>
+      </c>
+      <c r="C203" t="s">
+        <v>295</v>
+      </c>
+      <c r="D203" t="s">
+        <v>9</v>
+      </c>
+      <c r="J203" t="s">
+        <v>3</v>
+      </c>
+      <c r="K203" t="s">
+        <v>3</v>
+      </c>
+      <c r="L203" t="s">
+        <v>3</v>
+      </c>
+      <c r="M203" t="s">
+        <v>3</v>
+      </c>
+      <c r="N203" t="s">
+        <v>3</v>
+      </c>
+      <c r="P203" t="s">
+        <v>4</v>
+      </c>
+      <c r="R203" t="s">
+        <v>16</v>
+      </c>
+      <c r="S203" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19">
+      <c r="A204" t="s">
+        <v>260</v>
+      </c>
+      <c r="C204" t="s">
+        <v>295</v>
+      </c>
+      <c r="D204" t="s">
+        <v>9</v>
+      </c>
+      <c r="J204" t="s">
+        <v>3</v>
+      </c>
+      <c r="K204" t="s">
+        <v>3</v>
+      </c>
+      <c r="L204" t="s">
+        <v>3</v>
+      </c>
+      <c r="M204" t="s">
+        <v>3</v>
+      </c>
+      <c r="N204" t="s">
+        <v>3</v>
+      </c>
+      <c r="P204" t="s">
+        <v>4</v>
+      </c>
+      <c r="R204" t="s">
+        <v>16</v>
+      </c>
+      <c r="S204" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19">
+      <c r="A205" t="s">
+        <v>265</v>
+      </c>
+      <c r="C205" t="s">
+        <v>295</v>
+      </c>
+      <c r="D205" t="s">
+        <v>58</v>
+      </c>
+      <c r="J205" t="s">
+        <v>267</v>
+      </c>
+      <c r="K205" t="s">
+        <v>60</v>
+      </c>
+      <c r="L205" t="s">
+        <v>55</v>
+      </c>
+      <c r="M205" t="s">
+        <v>41</v>
+      </c>
+      <c r="N205" t="s">
+        <v>3</v>
+      </c>
+      <c r="P205" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>389</v>
+      </c>
+      <c r="R205" t="s">
+        <v>16</v>
+      </c>
+      <c r="S205" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19">
+      <c r="A206" t="s">
+        <v>269</v>
+      </c>
+      <c r="C206" t="s">
+        <v>295</v>
+      </c>
+      <c r="E206" t="s">
+        <v>58</v>
+      </c>
+      <c r="J206" t="s">
+        <v>267</v>
+      </c>
+      <c r="K206" t="s">
+        <v>22</v>
+      </c>
+      <c r="L206" t="s">
+        <v>13</v>
+      </c>
+      <c r="M206" t="s">
+        <v>78</v>
+      </c>
+      <c r="N206" t="s">
+        <v>3</v>
+      </c>
+      <c r="P206" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>390</v>
+      </c>
+      <c r="R206" t="s">
+        <v>16</v>
+      </c>
+      <c r="S206" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19">
+      <c r="A207" t="s">
+        <v>271</v>
+      </c>
+      <c r="C207" t="s">
+        <v>295</v>
+      </c>
+      <c r="D207" t="s">
+        <v>58</v>
+      </c>
+      <c r="J207" t="s">
+        <v>158</v>
+      </c>
+      <c r="K207" t="s">
+        <v>60</v>
+      </c>
+      <c r="L207" t="s">
+        <v>144</v>
+      </c>
+      <c r="M207" t="s">
+        <v>78</v>
+      </c>
+      <c r="N207" t="s">
+        <v>3</v>
+      </c>
+      <c r="P207" t="s">
+        <v>30</v>
+      </c>
+      <c r="R207" t="s">
+        <v>16</v>
+      </c>
+      <c r="S207" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19">
+      <c r="A208" t="s">
+        <v>273</v>
+      </c>
+      <c r="C208" t="s">
+        <v>295</v>
+      </c>
+      <c r="D208" t="s">
+        <v>58</v>
+      </c>
+      <c r="J208" t="s">
+        <v>263</v>
+      </c>
+      <c r="K208" t="s">
+        <v>63</v>
+      </c>
+      <c r="L208" t="s">
+        <v>144</v>
+      </c>
+      <c r="M208" t="s">
+        <v>78</v>
+      </c>
+      <c r="N208" t="s">
+        <v>3</v>
+      </c>
+      <c r="P208" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>391</v>
+      </c>
+      <c r="R208" t="s">
+        <v>16</v>
+      </c>
+      <c r="S208" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19">
+      <c r="A209" t="s">
+        <v>276</v>
+      </c>
+      <c r="C209" t="s">
+        <v>295</v>
+      </c>
+      <c r="D209" t="s">
+        <v>58</v>
+      </c>
+      <c r="J209" t="s">
+        <v>277</v>
+      </c>
+      <c r="K209" t="s">
+        <v>63</v>
+      </c>
+      <c r="L209" t="s">
+        <v>154</v>
+      </c>
+      <c r="M209" t="s">
+        <v>169</v>
+      </c>
+      <c r="N209" t="s">
+        <v>3</v>
+      </c>
+      <c r="P209" t="s">
+        <v>4</v>
+      </c>
+      <c r="R209" t="s">
+        <v>16</v>
+      </c>
+      <c r="S209" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19">
+      <c r="A210" t="s">
+        <v>279</v>
+      </c>
+      <c r="C210" t="s">
+        <v>295</v>
+      </c>
+      <c r="D210" t="s">
+        <v>58</v>
+      </c>
+      <c r="J210" t="s">
+        <v>280</v>
+      </c>
+      <c r="K210" t="s">
+        <v>14</v>
+      </c>
+      <c r="L210" t="s">
+        <v>154</v>
+      </c>
+      <c r="M210" t="s">
+        <v>73</v>
+      </c>
+      <c r="N210" t="s">
+        <v>3</v>
+      </c>
+      <c r="P210" t="s">
+        <v>4</v>
+      </c>
+      <c r="R210" t="s">
+        <v>16</v>
+      </c>
+      <c r="S210" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19">
+      <c r="A211" t="s">
+        <v>281</v>
+      </c>
+      <c r="C211" t="s">
+        <v>295</v>
+      </c>
+      <c r="E211" t="s">
+        <v>58</v>
+      </c>
+      <c r="J211" t="s">
+        <v>282</v>
+      </c>
+      <c r="K211" t="s">
+        <v>13</v>
+      </c>
+      <c r="L211" t="s">
+        <v>3</v>
+      </c>
+      <c r="M211" t="s">
+        <v>249</v>
+      </c>
+      <c r="N211" t="s">
+        <v>3</v>
+      </c>
+      <c r="P211" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>392</v>
+      </c>
+      <c r="R211" t="s">
+        <v>16</v>
+      </c>
+      <c r="S211" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19">
+      <c r="A212" t="s">
+        <v>393</v>
+      </c>
+      <c r="C212" t="s">
+        <v>295</v>
+      </c>
+      <c r="D212" t="s">
+        <v>58</v>
+      </c>
+      <c r="J212" t="s">
+        <v>394</v>
+      </c>
+      <c r="K212" t="s">
+        <v>229</v>
+      </c>
+      <c r="L212" t="s">
+        <v>12</v>
+      </c>
+      <c r="M212" t="s">
+        <v>239</v>
+      </c>
+      <c r="N212" t="s">
+        <v>3</v>
+      </c>
+      <c r="P212" t="s">
+        <v>4</v>
+      </c>
+      <c r="R212" t="s">
+        <v>16</v>
+      </c>
+      <c r="S212" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19">
+      <c r="A213" t="s">
+        <v>395</v>
+      </c>
+      <c r="C213" t="s">
+        <v>295</v>
+      </c>
+      <c r="D213" t="s">
+        <v>58</v>
+      </c>
+      <c r="J213" t="s">
+        <v>3</v>
+      </c>
+      <c r="K213" t="s">
+        <v>3</v>
+      </c>
+      <c r="L213" t="s">
+        <v>3</v>
+      </c>
+      <c r="M213" t="s">
+        <v>3</v>
+      </c>
+      <c r="N213" t="s">
+        <v>3</v>
+      </c>
+      <c r="P213" t="s">
+        <v>4</v>
+      </c>
+      <c r="R213" t="s">
+        <v>16</v>
+      </c>
+      <c r="S213" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19">
+      <c r="A214" t="s">
+        <v>18</v>
+      </c>
+      <c r="C214" t="s">
+        <v>295</v>
+      </c>
+      <c r="D214" t="s">
+        <v>289</v>
+      </c>
+      <c r="J214" t="s">
+        <v>21</v>
+      </c>
+      <c r="K214" t="s">
+        <v>22</v>
+      </c>
+      <c r="L214" t="s">
+        <v>23</v>
+      </c>
+      <c r="M214" t="s">
+        <v>24</v>
+      </c>
+      <c r="N214" t="s">
+        <v>3</v>
+      </c>
+      <c r="P214" t="s">
+        <v>4</v>
+      </c>
+      <c r="R214" t="s">
+        <v>16</v>
+      </c>
+      <c r="S214" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19">
+      <c r="A215" t="s">
+        <v>284</v>
+      </c>
+      <c r="C215" t="s">
+        <v>295</v>
+      </c>
+      <c r="D215" t="s">
+        <v>289</v>
+      </c>
+      <c r="J215" t="s">
+        <v>146</v>
+      </c>
+      <c r="K215" t="s">
+        <v>63</v>
+      </c>
+      <c r="L215" t="s">
+        <v>13</v>
+      </c>
+      <c r="M215" t="s">
+        <v>60</v>
+      </c>
+      <c r="N215" t="s">
+        <v>3</v>
+      </c>
+      <c r="P215" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>396</v>
+      </c>
+      <c r="R215" t="s">
+        <v>16</v>
+      </c>
+      <c r="S215" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19">
+      <c r="A216" t="s">
+        <v>98</v>
+      </c>
+      <c r="C216" t="s">
+        <v>295</v>
+      </c>
+      <c r="D216" t="s">
+        <v>289</v>
+      </c>
+      <c r="J216" t="s">
+        <v>99</v>
+      </c>
+      <c r="K216" t="s">
+        <v>13</v>
+      </c>
+      <c r="L216" t="s">
+        <v>54</v>
+      </c>
+      <c r="M216" t="s">
+        <v>63</v>
+      </c>
+      <c r="N216" t="s">
+        <v>3</v>
+      </c>
+      <c r="P216" t="s">
+        <v>4</v>
+      </c>
+      <c r="R216" t="s">
+        <v>16</v>
+      </c>
+      <c r="S216" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19">
+      <c r="A217" t="s">
+        <v>94</v>
+      </c>
+      <c r="C217" t="s">
+        <v>295</v>
+      </c>
+      <c r="D217" t="s">
+        <v>289</v>
+      </c>
+      <c r="J217" t="s">
+        <v>97</v>
+      </c>
+      <c r="K217" t="s">
+        <v>41</v>
+      </c>
+      <c r="L217" t="s">
+        <v>3</v>
+      </c>
+      <c r="M217" t="s">
+        <v>13</v>
+      </c>
+      <c r="N217" t="s">
+        <v>3</v>
+      </c>
+      <c r="P217" t="s">
+        <v>4</v>
+      </c>
+      <c r="R217" t="s">
+        <v>16</v>
+      </c>
+      <c r="S217" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19">
+      <c r="A218" t="s">
+        <v>286</v>
+      </c>
+      <c r="C218" t="s">
+        <v>295</v>
+      </c>
+      <c r="E218" t="s">
+        <v>289</v>
+      </c>
+      <c r="J218" t="s">
+        <v>69</v>
+      </c>
+      <c r="K218" t="s">
+        <v>3</v>
+      </c>
+      <c r="L218" t="s">
+        <v>173</v>
+      </c>
+      <c r="M218" t="s">
+        <v>3</v>
+      </c>
+      <c r="N218" t="s">
+        <v>147</v>
+      </c>
+      <c r="P218" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>397</v>
+      </c>
+      <c r="R218" t="s">
+        <v>16</v>
+      </c>
+      <c r="S218" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19">
+      <c r="A219" t="s">
+        <v>100</v>
+      </c>
+      <c r="C219" t="s">
+        <v>295</v>
+      </c>
+      <c r="D219" t="s">
+        <v>289</v>
+      </c>
+      <c r="J219" t="s">
+        <v>3</v>
+      </c>
+      <c r="K219" t="s">
+        <v>3</v>
+      </c>
+      <c r="L219" t="s">
+        <v>3</v>
+      </c>
+      <c r="M219" t="s">
+        <v>3</v>
+      </c>
+      <c r="N219" t="s">
+        <v>3</v>
+      </c>
+      <c r="P219" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>398</v>
+      </c>
+      <c r="R219" t="s">
+        <v>16</v>
+      </c>
+      <c r="S219" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19">
+      <c r="A220" t="s">
+        <v>399</v>
+      </c>
+      <c r="C220" t="s">
+        <v>295</v>
+      </c>
+      <c r="E220" t="s">
+        <v>289</v>
+      </c>
+      <c r="J220" t="s">
+        <v>3</v>
+      </c>
+      <c r="K220" t="s">
+        <v>3</v>
+      </c>
+      <c r="L220" t="s">
+        <v>3</v>
+      </c>
+      <c r="M220" t="s">
+        <v>3</v>
+      </c>
+      <c r="N220" t="s">
+        <v>3</v>
+      </c>
+      <c r="P220" t="s">
+        <v>4</v>
+      </c>
+      <c r="R220" t="s">
+        <v>16</v>
+      </c>
+      <c r="S220" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19">
+      <c r="A221" t="s">
+        <v>47</v>
+      </c>
+      <c r="C221" t="s">
+        <v>295</v>
+      </c>
+      <c r="D221" t="s">
+        <v>289</v>
+      </c>
+      <c r="J221" t="s">
+        <v>3</v>
+      </c>
+      <c r="K221" t="s">
+        <v>3</v>
+      </c>
+      <c r="L221" t="s">
+        <v>3</v>
+      </c>
+      <c r="M221" t="s">
+        <v>3</v>
+      </c>
+      <c r="N221" t="s">
+        <v>3</v>
+      </c>
+      <c r="P221" t="s">
+        <v>4</v>
+      </c>
+      <c r="R221" t="s">
+        <v>16</v>
+      </c>
+      <c r="S221" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19">
+      <c r="A222" t="s">
+        <v>400</v>
+      </c>
+      <c r="C222" t="s">
+        <v>295</v>
+      </c>
+      <c r="D222" t="s">
+        <v>289</v>
+      </c>
+      <c r="J222" t="s">
+        <v>3</v>
+      </c>
+      <c r="K222" t="s">
+        <v>3</v>
+      </c>
+      <c r="L222" t="s">
+        <v>3</v>
+      </c>
+      <c r="M222" t="s">
+        <v>3</v>
+      </c>
+      <c r="N222" t="s">
+        <v>3</v>
+      </c>
+      <c r="P222" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>398</v>
+      </c>
+      <c r="R222" t="s">
+        <v>16</v>
+      </c>
+      <c r="S222" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19">
+      <c r="A223" t="s">
+        <v>28</v>
+      </c>
+      <c r="C223" t="s">
+        <v>295</v>
+      </c>
+      <c r="D223" t="s">
+        <v>289</v>
+      </c>
+      <c r="J223" t="s">
+        <v>3</v>
+      </c>
+      <c r="K223" t="s">
+        <v>3</v>
+      </c>
+      <c r="L223" t="s">
+        <v>3</v>
+      </c>
+      <c r="M223" t="s">
+        <v>3</v>
+      </c>
+      <c r="N223" t="s">
+        <v>3</v>
+      </c>
+      <c r="P223" t="s">
+        <v>4</v>
+      </c>
+      <c r="R223" t="s">
+        <v>16</v>
+      </c>
+      <c r="S223" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19">
+      <c r="A224" t="s">
+        <v>288</v>
+      </c>
+      <c r="C224" t="s">
+        <v>295</v>
+      </c>
+      <c r="D224" t="s">
+        <v>289</v>
+      </c>
+      <c r="J224" t="s">
+        <v>3</v>
+      </c>
+      <c r="K224" t="s">
+        <v>3</v>
+      </c>
+      <c r="L224" t="s">
+        <v>3</v>
+      </c>
+      <c r="M224" t="s">
+        <v>3</v>
+      </c>
+      <c r="N224" t="s">
+        <v>3</v>
+      </c>
+      <c r="P224" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>401</v>
+      </c>
+      <c r="R224" t="s">
+        <v>16</v>
+      </c>
+      <c r="S224" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19">
+      <c r="A225" t="s">
+        <v>402</v>
+      </c>
+      <c r="C225" t="s">
+        <v>295</v>
+      </c>
+      <c r="D225" t="s">
+        <v>289</v>
+      </c>
+      <c r="J225" t="s">
+        <v>3</v>
+      </c>
+      <c r="K225" t="s">
+        <v>3</v>
+      </c>
+      <c r="L225" t="s">
+        <v>3</v>
+      </c>
+      <c r="M225" t="s">
+        <v>3</v>
+      </c>
+      <c r="N225" t="s">
+        <v>3</v>
+      </c>
+      <c r="P225" t="s">
+        <v>4</v>
+      </c>
+      <c r="R225" t="s">
+        <v>16</v>
+      </c>
+      <c r="S225" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19">
+      <c r="A226" t="s">
+        <v>293</v>
+      </c>
+      <c r="C226" t="s">
+        <v>295</v>
+      </c>
+      <c r="D226" t="s">
+        <v>289</v>
+      </c>
+      <c r="J226" t="s">
+        <v>3</v>
+      </c>
+      <c r="K226" t="s">
+        <v>3</v>
+      </c>
+      <c r="L226" t="s">
+        <v>3</v>
+      </c>
+      <c r="M226" t="s">
+        <v>3</v>
+      </c>
+      <c r="N226" t="s">
+        <v>3</v>
+      </c>
+      <c r="P226" t="s">
+        <v>4</v>
+      </c>
+      <c r="R226" t="s">
+        <v>16</v>
+      </c>
+      <c r="S226" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19">
+      <c r="A227" t="s">
+        <v>403</v>
+      </c>
+      <c r="C227" t="s">
+        <v>295</v>
+      </c>
+      <c r="D227" t="s">
+        <v>289</v>
+      </c>
+      <c r="J227" t="s">
+        <v>3</v>
+      </c>
+      <c r="K227" t="s">
+        <v>3</v>
+      </c>
+      <c r="L227" t="s">
+        <v>3</v>
+      </c>
+      <c r="M227" t="s">
+        <v>3</v>
+      </c>
+      <c r="N227" t="s">
+        <v>3</v>
+      </c>
+      <c r="P227" t="s">
+        <v>4</v>
+      </c>
+      <c r="R227" t="s">
+        <v>16</v>
+      </c>
+      <c r="S227" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19">
+      <c r="A228" t="s">
+        <v>294</v>
+      </c>
+      <c r="C228" t="s">
+        <v>295</v>
+      </c>
+      <c r="D228" t="s">
+        <v>289</v>
+      </c>
+      <c r="J228" t="s">
+        <v>3</v>
+      </c>
+      <c r="K228" t="s">
+        <v>3</v>
+      </c>
+      <c r="L228" t="s">
+        <v>3</v>
+      </c>
+      <c r="M228" t="s">
+        <v>3</v>
+      </c>
+      <c r="N228" t="s">
+        <v>3</v>
+      </c>
+      <c r="P228" t="s">
+        <v>4</v>
+      </c>
+      <c r="R228" t="s">
+        <v>16</v>
+      </c>
+      <c r="S228" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19">
+      <c r="A229" t="s">
+        <v>291</v>
+      </c>
+      <c r="C229" t="s">
+        <v>295</v>
+      </c>
+      <c r="D229" t="s">
+        <v>289</v>
+      </c>
+      <c r="J229" t="s">
+        <v>3</v>
+      </c>
+      <c r="K229" t="s">
+        <v>3</v>
+      </c>
+      <c r="L229" t="s">
+        <v>3</v>
+      </c>
+      <c r="M229" t="s">
+        <v>3</v>
+      </c>
+      <c r="N229" t="s">
+        <v>3</v>
+      </c>
+      <c r="P229" t="s">
+        <v>4</v>
+      </c>
+      <c r="R229" t="s">
+        <v>16</v>
+      </c>
+      <c r="S229" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19">
+      <c r="A230" t="s">
+        <v>292</v>
+      </c>
+      <c r="C230" t="s">
+        <v>295</v>
+      </c>
+      <c r="D230" t="s">
+        <v>289</v>
+      </c>
+      <c r="J230" t="s">
+        <v>3</v>
+      </c>
+      <c r="K230" t="s">
+        <v>3</v>
+      </c>
+      <c r="L230" t="s">
+        <v>3</v>
+      </c>
+      <c r="M230" t="s">
+        <v>3</v>
+      </c>
+      <c r="N230" t="s">
+        <v>3</v>
+      </c>
+      <c r="P230" t="s">
+        <v>4</v>
+      </c>
+      <c r="R230" t="s">
+        <v>16</v>
+      </c>
+      <c r="S230" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19">
+      <c r="A231" t="s">
+        <v>31</v>
+      </c>
+      <c r="C231" t="s">
+        <v>295</v>
+      </c>
+      <c r="D231" t="s">
+        <v>289</v>
+      </c>
+      <c r="J231" t="s">
+        <v>3</v>
+      </c>
+      <c r="K231" t="s">
+        <v>3</v>
+      </c>
+      <c r="L231" t="s">
+        <v>3</v>
+      </c>
+      <c r="M231" t="s">
+        <v>3</v>
+      </c>
+      <c r="N231" t="s">
+        <v>3</v>
+      </c>
+      <c r="P231" t="s">
+        <v>4</v>
+      </c>
+      <c r="R231" t="s">
+        <v>16</v>
+      </c>
+      <c r="S231" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19">
+      <c r="A232" t="s">
+        <v>404</v>
+      </c>
+      <c r="C232" t="s">
+        <v>295</v>
+      </c>
+      <c r="D232" t="s">
+        <v>289</v>
+      </c>
+      <c r="J232" t="s">
+        <v>3</v>
+      </c>
+      <c r="K232" t="s">
+        <v>3</v>
+      </c>
+      <c r="L232" t="s">
+        <v>3</v>
+      </c>
+      <c r="M232" t="s">
+        <v>3</v>
+      </c>
+      <c r="N232" t="s">
+        <v>3</v>
+      </c>
+      <c r="P232" t="s">
+        <v>4</v>
+      </c>
+      <c r="R232" t="s">
+        <v>16</v>
+      </c>
+      <c r="S232" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19">
+      <c r="A233" t="s">
+        <v>405</v>
+      </c>
+      <c r="C233" t="s">
+        <v>295</v>
+      </c>
+      <c r="E233" t="s">
+        <v>289</v>
+      </c>
+      <c r="J233" t="s">
+        <v>3</v>
+      </c>
+      <c r="K233" t="s">
+        <v>3</v>
+      </c>
+      <c r="L233" t="s">
+        <v>3</v>
+      </c>
+      <c r="M233" t="s">
+        <v>3</v>
+      </c>
+      <c r="N233" t="s">
+        <v>3</v>
+      </c>
+      <c r="P233" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>406</v>
+      </c>
+      <c r="R233" t="s">
+        <v>16</v>
+      </c>
+      <c r="S233" t="s">
         <v>17</v>
       </c>
     </row>

--- a/tables/kom.xlsx
+++ b/tables/kom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="340">
   <si>
     <t>203-022-003 60</t>
   </si>
@@ -1013,6 +1013,27 @@
   </si>
   <si>
     <t xml:space="preserve">1 - ПГ ЗО </t>
+  </si>
+  <si>
+    <t>161-640-050 29</t>
+  </si>
+  <si>
+    <t>185-152-915 80</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>148-304-658 66</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - ИСТ </t>
+  </si>
+  <si>
+    <t>159-792-601 24</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T142"/>
+  <dimension ref="A1:T146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6896,6 +6917,158 @@
         <v>6</v>
       </c>
     </row>
+    <row r="143" spans="1:20">
+      <c r="A143" t="s">
+        <v>333</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>2</v>
+      </c>
+      <c r="E143" t="s">
+        <v>33</v>
+      </c>
+      <c r="F143" t="s">
+        <v>32</v>
+      </c>
+      <c r="G143" t="s">
+        <v>9</v>
+      </c>
+      <c r="J143" t="s">
+        <v>3</v>
+      </c>
+      <c r="K143" t="s">
+        <v>3</v>
+      </c>
+      <c r="L143" t="s">
+        <v>3</v>
+      </c>
+      <c r="M143" t="s">
+        <v>3</v>
+      </c>
+      <c r="N143" t="s">
+        <v>3</v>
+      </c>
+      <c r="P143" t="s">
+        <v>4</v>
+      </c>
+      <c r="S143" t="s">
+        <v>5</v>
+      </c>
+      <c r="T143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20">
+      <c r="A144" t="s">
+        <v>334</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+      <c r="J144" t="s">
+        <v>335</v>
+      </c>
+      <c r="K144" t="s">
+        <v>3</v>
+      </c>
+      <c r="L144" t="s">
+        <v>3</v>
+      </c>
+      <c r="M144" t="s">
+        <v>335</v>
+      </c>
+      <c r="N144" t="s">
+        <v>3</v>
+      </c>
+      <c r="P144" t="s">
+        <v>4</v>
+      </c>
+      <c r="S144" t="s">
+        <v>5</v>
+      </c>
+      <c r="T144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20">
+      <c r="A145" t="s">
+        <v>336</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2</v>
+      </c>
+      <c r="J145" t="s">
+        <v>337</v>
+      </c>
+      <c r="K145" t="s">
+        <v>20</v>
+      </c>
+      <c r="L145" t="s">
+        <v>64</v>
+      </c>
+      <c r="M145" t="s">
+        <v>87</v>
+      </c>
+      <c r="N145" t="s">
+        <v>3</v>
+      </c>
+      <c r="P145" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>338</v>
+      </c>
+      <c r="S145" t="s">
+        <v>5</v>
+      </c>
+      <c r="T145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20">
+      <c r="A146" t="s">
+        <v>339</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+      <c r="H146" t="s">
+        <v>16</v>
+      </c>
+      <c r="J146" t="s">
+        <v>3</v>
+      </c>
+      <c r="K146" t="s">
+        <v>3</v>
+      </c>
+      <c r="L146" t="s">
+        <v>3</v>
+      </c>
+      <c r="M146" t="s">
+        <v>3</v>
+      </c>
+      <c r="N146" t="s">
+        <v>3</v>
+      </c>
+      <c r="P146" t="s">
+        <v>4</v>
+      </c>
+      <c r="S146" t="s">
+        <v>5</v>
+      </c>
+      <c r="T146" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
